--- a/academycity/data/avi/datasets/excel/world_bank/output/2019_NaturalRes_o.xlsx
+++ b/academycity/data/avi/datasets/excel/world_bank/output/2019_NaturalRes_o.xlsx
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.005651</v>
+        <v>-0.006535</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.009133</v>
+        <v>-0.006876</v>
       </c>
     </row>
     <row r="3">
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.005313</v>
+        <v>-0.006145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000808</v>
+        <v>0.000608</v>
       </c>
     </row>
     <row r="4">
@@ -3390,10 +3390,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.030414</v>
+        <v>0.035175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.078138</v>
+        <v>0.058828</v>
       </c>
     </row>
     <row r="5">
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.002789</v>
+        <v>0.003225</v>
       </c>
       <c r="D5" t="n">
-        <v>0.077247</v>
+        <v>0.058158</v>
       </c>
     </row>
     <row r="6">
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.014178</v>
+        <v>0.016398</v>
       </c>
       <c r="D6" t="n">
-        <v>0.026373</v>
+        <v>0.019856</v>
       </c>
     </row>
     <row r="7">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.003329</v>
+        <v>0.002507</v>
       </c>
     </row>
     <row r="8">
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.31416</v>
+        <v>0.363343</v>
       </c>
       <c r="D8" t="n">
-        <v>0.432846</v>
+        <v>0.325883</v>
       </c>
     </row>
     <row r="9">
@@ -3467,10 +3467,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.001435</v>
+        <v>-0.00166</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.003017</v>
+        <v>-0.002271</v>
       </c>
     </row>
     <row r="10">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.08268499999999999</v>
+        <v>0.09563000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166647</v>
+        <v>0.125466</v>
       </c>
     </row>
     <row r="11">
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.163548</v>
+        <v>0.189153</v>
       </c>
       <c r="D11" t="n">
-        <v>0.332944</v>
+        <v>0.250668</v>
       </c>
     </row>
     <row r="12">
@@ -3515,10 +3515,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.003579</v>
+        <v>-0.004139</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008829</v>
+        <v>-0.006647</v>
       </c>
     </row>
     <row r="13">
@@ -3531,10 +3531,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.005154</v>
+        <v>-0.005961</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004367</v>
+        <v>0.003288</v>
       </c>
     </row>
     <row r="14">
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.008540000000000001</v>
+        <v>-0.00643</v>
       </c>
     </row>
     <row r="15">
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.005953</v>
+        <v>-0.004482</v>
       </c>
     </row>
     <row r="16">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01204</v>
+        <v>0.013925</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004442</v>
+        <v>0.003344</v>
       </c>
     </row>
     <row r="17">
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.004058</v>
+        <v>-0.003055</v>
       </c>
     </row>
     <row r="18">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.004369</v>
+        <v>-0.003289</v>
       </c>
     </row>
     <row r="19">
@@ -3615,10 +3615,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.004149</v>
+        <v>-0.004798</v>
       </c>
       <c r="D19" t="n">
-        <v>0.029362</v>
+        <v>0.022106</v>
       </c>
     </row>
     <row r="20">
@@ -3631,7 +3631,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.003476</v>
+        <v>-0.002617</v>
       </c>
     </row>
     <row r="21">
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.001948</v>
+        <v>-0.001467</v>
       </c>
     </row>
     <row r="22">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.005164</v>
+        <v>-0.003888</v>
       </c>
     </row>
     <row r="23">
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.008364999999999999</v>
+        <v>-0.006298</v>
       </c>
     </row>
     <row r="24">
@@ -3683,10 +3683,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.001444</v>
+        <v>-0.001671</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001673</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="25">
@@ -3699,10 +3699,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.004655</v>
+        <v>0.005384</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10648</v>
+        <v>0.080167</v>
       </c>
     </row>
     <row r="26">
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.004814</v>
+        <v>-0.003625</v>
       </c>
     </row>
     <row r="27">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.008812</v>
+        <v>0.006635</v>
       </c>
     </row>
     <row r="28">
@@ -3741,10 +3741,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.004464</v>
+        <v>-0.005162</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07671500000000001</v>
+        <v>0.057758</v>
       </c>
     </row>
     <row r="29">
@@ -3757,10 +3757,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.000816</v>
+        <v>0.000944</v>
       </c>
       <c r="D29" t="n">
-        <v>0.005323</v>
+        <v>0.004007</v>
       </c>
     </row>
     <row r="30">
@@ -3773,10 +3773,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.001898</v>
+        <v>-0.002195</v>
       </c>
       <c r="D30" t="n">
-        <v>0.029201</v>
+        <v>0.021985</v>
       </c>
     </row>
     <row r="31">
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.00084</v>
+        <v>-0.000632</v>
       </c>
     </row>
     <row r="32">
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.002563</v>
+        <v>0.002964</v>
       </c>
       <c r="D32" t="n">
-        <v>0.093362</v>
+        <v>0.07029100000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.002795</v>
+        <v>0.002104</v>
       </c>
     </row>
     <row r="34">
@@ -3831,10 +3831,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.00162</v>
+        <v>-0.001873</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000178</v>
+        <v>0.000134</v>
       </c>
     </row>
     <row r="35">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.002693</v>
+        <v>0.003114</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00236</v>
+        <v>0.001777</v>
       </c>
     </row>
     <row r="36">
@@ -3863,10 +3863,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.00462</v>
+        <v>-0.005344</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.000706</v>
+        <v>-0.000532</v>
       </c>
     </row>
     <row r="37">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.004801</v>
+        <v>-0.005552</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000802</v>
+        <v>0.000604</v>
       </c>
     </row>
     <row r="38">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.012708</v>
+        <v>0.014697</v>
       </c>
       <c r="D38" t="n">
-        <v>0.026608</v>
+        <v>0.020032</v>
       </c>
     </row>
     <row r="39">
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-0.008451</v>
+        <v>-0.006363</v>
       </c>
     </row>
     <row r="40">
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.001597</v>
+        <v>0.001202</v>
       </c>
     </row>
     <row r="41">
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.005461</v>
+        <v>-0.006316</v>
       </c>
       <c r="D41" t="n">
-        <v>0.042691</v>
+        <v>0.032141</v>
       </c>
     </row>
     <row r="42">
@@ -3953,10 +3953,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.008152</v>
+        <v>0.009428000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.014674</v>
+        <v>0.011048</v>
       </c>
     </row>
     <row r="43">
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-0.006681</v>
+        <v>-0.00503</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.106926</v>
+        <v>0.123666</v>
       </c>
       <c r="D44" t="n">
-        <v>0.217926</v>
+        <v>0.164073</v>
       </c>
     </row>
     <row r="45">
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.021289</v>
+        <v>0.016028</v>
       </c>
     </row>
     <row r="46">
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.006716</v>
+        <v>0.005056</v>
       </c>
     </row>
     <row r="47">
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.004076</v>
+        <v>-0.003069</v>
       </c>
     </row>
     <row r="48">
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.012429</v>
+        <v>0.009358</v>
       </c>
     </row>
     <row r="49">
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.008148000000000001</v>
+        <v>-0.006134</v>
       </c>
     </row>
     <row r="50">
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-1.8e-05</v>
+        <v>-2e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.193053</v>
+        <v>0.145347</v>
       </c>
     </row>
     <row r="51">
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-0.007224</v>
+        <v>-0.005439</v>
       </c>
     </row>
     <row r="52">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.005764</v>
+        <v>-0.00434</v>
       </c>
     </row>
     <row r="53">
@@ -4105,10 +4105,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.003738</v>
+        <v>-0.004323</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.004615</v>
+        <v>-0.003475</v>
       </c>
     </row>
     <row r="54">
@@ -4121,10 +4121,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.004271</v>
+        <v>-0.00494</v>
       </c>
       <c r="D54" t="n">
-        <v>0.016725</v>
+        <v>0.012592</v>
       </c>
     </row>
     <row r="55">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-0.007933000000000001</v>
+        <v>-0.005972</v>
       </c>
     </row>
     <row r="56">
@@ -4150,10 +4150,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.005535</v>
+        <v>-0.006402</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.003257</v>
+        <v>-0.002452</v>
       </c>
     </row>
     <row r="57">
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.004038</v>
+        <v>-0.00304</v>
       </c>
     </row>
     <row r="58">
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.001514</v>
+        <v>-0.00114</v>
       </c>
     </row>
     <row r="59">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-0.008866000000000001</v>
+        <v>-0.006675</v>
       </c>
     </row>
     <row r="60">
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.006712</v>
+        <v>-0.005053</v>
       </c>
     </row>
     <row r="61">
@@ -4218,10 +4218,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.000175</v>
+        <v>-0.000202</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.003411</v>
+        <v>-0.002568</v>
       </c>
     </row>
     <row r="62">
@@ -4234,10 +4234,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.005374</v>
+        <v>-0.006215</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.004656</v>
+        <v>-0.003505</v>
       </c>
     </row>
     <row r="63">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.006099</v>
+        <v>0.007054</v>
       </c>
       <c r="D63" t="n">
-        <v>0.007366</v>
+        <v>0.005546</v>
       </c>
     </row>
     <row r="64">
@@ -4266,10 +4266,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.075131</v>
+        <v>0.086894</v>
       </c>
       <c r="D64" t="n">
-        <v>0.163714</v>
+        <v>0.123258</v>
       </c>
     </row>
     <row r="65">
@@ -4282,10 +4282,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.001931</v>
+        <v>-0.002233</v>
       </c>
       <c r="D65" t="n">
-        <v>0.23829</v>
+        <v>0.179405</v>
       </c>
     </row>
     <row r="66">
@@ -4298,10 +4298,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.011592</v>
+        <v>0.013407</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.001868</v>
+        <v>-0.001406</v>
       </c>
     </row>
     <row r="67">
@@ -4314,10 +4314,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.010677</v>
+        <v>0.012349</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.004533</v>
+        <v>-0.003413</v>
       </c>
     </row>
     <row r="68">
@@ -4330,10 +4330,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.002774</v>
+        <v>-0.003208</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.005916</v>
+        <v>-0.004454</v>
       </c>
     </row>
     <row r="69">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-0.008625000000000001</v>
+        <v>-0.006494</v>
       </c>
     </row>
     <row r="70">
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-0.005454</v>
+        <v>-0.004106</v>
       </c>
     </row>
     <row r="71">
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.005551</v>
+        <v>-0.00642</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.009502999999999999</v>
+        <v>-0.007155</v>
       </c>
     </row>
     <row r="72">
@@ -4388,10 +4388,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.064106</v>
+        <v>0.074142</v>
       </c>
       <c r="D72" t="n">
-        <v>0.271077</v>
+        <v>0.20409</v>
       </c>
     </row>
     <row r="73">
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.007002</v>
+        <v>-0.005272</v>
       </c>
     </row>
     <row r="74">
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-0.005562</v>
+        <v>-0.004187</v>
       </c>
     </row>
     <row r="75">
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.007472</v>
+        <v>-0.005625</v>
       </c>
     </row>
     <row r="76">
@@ -4443,10 +4443,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.052425</v>
+        <v>0.060632</v>
       </c>
       <c r="D76" t="n">
-        <v>1.358446</v>
+        <v>1.022752</v>
       </c>
     </row>
     <row r="77">
@@ -4459,10 +4459,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.005618</v>
+        <v>-0.006498</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0019</v>
+        <v>0.00143</v>
       </c>
     </row>
     <row r="78">
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.000429</v>
+        <v>0.000323</v>
       </c>
     </row>
     <row r="79">
@@ -4488,7 +4488,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.013838</v>
+        <v>0.010418</v>
       </c>
     </row>
     <row r="80">
@@ -4501,7 +4501,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.004275</v>
+        <v>-0.003218</v>
       </c>
     </row>
     <row r="81">
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.002212</v>
+        <v>0.001665</v>
       </c>
     </row>
     <row r="82">
@@ -4527,10 +4527,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.038704</v>
+        <v>0.044763</v>
       </c>
       <c r="D82" t="n">
-        <v>0.53015</v>
+        <v>0.399141</v>
       </c>
     </row>
     <row r="83">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.002291</v>
+        <v>-0.001725</v>
       </c>
     </row>
     <row r="84">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-0.006724</v>
+        <v>-0.005063</v>
       </c>
     </row>
     <row r="85">
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.007481</v>
+        <v>-0.005632</v>
       </c>
     </row>
     <row r="86">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.116082</v>
+        <v>0.134255</v>
       </c>
       <c r="D86" t="n">
-        <v>0.084816</v>
+        <v>0.063857</v>
       </c>
     </row>
     <row r="87">
@@ -4598,7 +4598,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.00173</v>
+        <v>-0.001303</v>
       </c>
     </row>
     <row r="88">
@@ -4611,7 +4611,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.003886</v>
+        <v>-0.002926</v>
       </c>
     </row>
     <row r="89">
@@ -4624,10 +4624,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-0.002042</v>
+        <v>-0.002362</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02053</v>
+        <v>0.015457</v>
       </c>
     </row>
     <row r="90">
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.008544</v>
+        <v>-0.006432</v>
       </c>
     </row>
     <row r="91">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.078335</v>
+        <v>0.058978</v>
       </c>
     </row>
     <row r="92">
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.008179000000000001</v>
+        <v>-0.006158</v>
       </c>
     </row>
     <row r="93">
@@ -4679,7 +4679,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.002784</v>
+        <v>0.00322</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -4695,10 +4695,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.015702</v>
+        <v>0.018161</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001735</v>
+        <v>0.001306</v>
       </c>
     </row>
     <row r="95">
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-0.001092</v>
+        <v>-0.000822</v>
       </c>
     </row>
     <row r="96">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-0.009051</v>
+        <v>-0.006814</v>
       </c>
     </row>
     <row r="97">
@@ -4737,10 +4737,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.043347</v>
+        <v>0.050133</v>
       </c>
       <c r="D97" t="n">
-        <v>0.006013</v>
+        <v>0.004527</v>
       </c>
     </row>
     <row r="98">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.044747</v>
+        <v>0.051752</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07018199999999999</v>
+        <v>0.052839</v>
       </c>
     </row>
     <row r="99">
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.006481</v>
+        <v>-0.004879</v>
       </c>
     </row>
     <row r="100">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.005483</v>
+        <v>-0.004128</v>
       </c>
     </row>
     <row r="101">
@@ -4795,10 +4795,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.005691</v>
+        <v>0.006582</v>
       </c>
       <c r="D101" t="n">
-        <v>0.020684</v>
+        <v>0.015573</v>
       </c>
     </row>
     <row r="102">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.006032</v>
+        <v>-0.004541</v>
       </c>
     </row>
     <row r="103">
@@ -4824,10 +4824,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.72927</v>
+        <v>0.8434430000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.671774</v>
+        <v>0.505767</v>
       </c>
     </row>
     <row r="104">
@@ -4840,10 +4840,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.143836</v>
+        <v>0.166355</v>
       </c>
       <c r="D104" t="n">
-        <v>0.612707</v>
+        <v>0.461297</v>
       </c>
     </row>
     <row r="105">
@@ -4856,10 +4856,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-0.002921</v>
+        <v>-0.003379</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.007512</v>
+        <v>-0.005656</v>
       </c>
     </row>
     <row r="106">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>-0.003394</v>
+        <v>-0.002556</v>
       </c>
     </row>
     <row r="107">
@@ -4885,10 +4885,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.057851</v>
+        <v>0.066908</v>
       </c>
       <c r="D107" t="n">
-        <v>0.032338</v>
+        <v>0.024347</v>
       </c>
     </row>
     <row r="108">
@@ -4901,7 +4901,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.0009829999999999999</v>
+        <v>0.00074</v>
       </c>
     </row>
     <row r="109">
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.025515</v>
+        <v>0.01921</v>
       </c>
     </row>
     <row r="110">
@@ -4930,10 +4930,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-0.003417</v>
+        <v>-0.003952</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.006265</v>
+        <v>-0.004717</v>
       </c>
     </row>
     <row r="111">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-0.002265</v>
+        <v>-0.00262</v>
       </c>
       <c r="D111" t="n">
-        <v>0.003588</v>
+        <v>0.002701</v>
       </c>
     </row>
     <row r="112">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-0.004621</v>
+        <v>-0.003479</v>
       </c>
     </row>
     <row r="113">
@@ -4975,10 +4975,10 @@
         </is>
       </c>
       <c r="C113" t="n">
+        <v>1.156557</v>
+      </c>
+      <c r="D113" t="n">
         <v>1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.328226</v>
       </c>
     </row>
     <row r="114">
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.00826</v>
+        <v>0.009553000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.002719</v>
+        <v>0.002047</v>
       </c>
     </row>
     <row r="115">
@@ -5007,10 +5007,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.125423</v>
+        <v>0.145059</v>
       </c>
       <c r="D115" t="n">
-        <v>0.157702</v>
+        <v>0.118732</v>
       </c>
     </row>
     <row r="116">
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-0.005394</v>
+        <v>-0.004061</v>
       </c>
     </row>
     <row r="117">
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.039659</v>
+        <v>0.045868</v>
       </c>
       <c r="D117" t="n">
-        <v>0.607598</v>
+        <v>0.457451</v>
       </c>
     </row>
     <row r="118">
@@ -5052,10 +5052,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-0.005666</v>
+        <v>-0.006554</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.004602</v>
+        <v>-0.003465</v>
       </c>
     </row>
     <row r="119">
@@ -5068,10 +5068,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-0.003917</v>
+        <v>-0.00453</v>
       </c>
       <c r="D119" t="n">
-        <v>0.000796</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.00355</v>
+        <v>-0.002673</v>
       </c>
     </row>
     <row r="121">
@@ -5097,10 +5097,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-0.004891</v>
+        <v>-0.005657</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.003755</v>
+        <v>-0.002827</v>
       </c>
     </row>
     <row r="122">
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-0.002476</v>
+        <v>-0.001864</v>
       </c>
     </row>
     <row r="123">
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-0.001867</v>
+        <v>-0.001405</v>
       </c>
     </row>
     <row r="124">
@@ -5139,10 +5139,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-0.004876</v>
+        <v>-0.00564</v>
       </c>
       <c r="D124" t="n">
-        <v>0.020292</v>
+        <v>0.015278</v>
       </c>
     </row>
     <row r="125">
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.008201999999999999</v>
+        <v>-0.006175</v>
       </c>
     </row>
     <row r="126">
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-0.009194000000000001</v>
+        <v>-0.006922</v>
       </c>
     </row>
     <row r="127">
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.017339</v>
+        <v>0.013054</v>
       </c>
     </row>
     <row r="128">
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.016642</v>
+        <v>0.012529</v>
       </c>
     </row>
     <row r="129">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.008528000000000001</v>
+        <v>-0.006421</v>
       </c>
     </row>
     <row r="130">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-0.003752</v>
+        <v>-0.00434</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.006481</v>
+        <v>-0.004879</v>
       </c>
     </row>
     <row r="131">
@@ -5236,7 +5236,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.001876</v>
+        <v>-0.001413</v>
       </c>
     </row>
     <row r="132">
@@ -5249,10 +5249,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-0.004728</v>
+        <v>-0.005468</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.004902</v>
+        <v>-0.00369</v>
       </c>
     </row>
     <row r="133">
@@ -5265,10 +5265,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.015675</v>
+        <v>0.018129</v>
       </c>
       <c r="D133" t="n">
-        <v>0.004294</v>
+        <v>0.003233</v>
       </c>
     </row>
     <row r="134">
@@ -5281,10 +5281,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.195809</v>
+        <v>0.226464</v>
       </c>
       <c r="D134" t="n">
-        <v>0.078871</v>
+        <v>0.059381</v>
       </c>
     </row>
     <row r="135">
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-0.006198</v>
+        <v>-0.004667</v>
       </c>
     </row>
     <row r="136">
@@ -5310,10 +5310,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.343588</v>
+        <v>0.397379</v>
       </c>
       <c r="D136" t="n">
-        <v>0.15841</v>
+        <v>0.119264</v>
       </c>
     </row>
     <row r="137">
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.001776</v>
+        <v>-0.002054</v>
       </c>
       <c r="D137" t="n">
-        <v>0.001352</v>
+        <v>0.001018</v>
       </c>
     </row>
     <row r="138">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-0.003787</v>
+        <v>-0.002851</v>
       </c>
     </row>
     <row r="139">
@@ -5355,10 +5355,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.333673</v>
+        <v>0.385911</v>
       </c>
       <c r="D139" t="n">
-        <v>0.158197</v>
+        <v>0.119104</v>
       </c>
     </row>
     <row r="140">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-0.00084</v>
+        <v>-0.000632</v>
       </c>
     </row>
     <row r="141">
@@ -5384,10 +5384,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.004098</v>
+        <v>0.00474</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.003912</v>
+        <v>-0.002946</v>
       </c>
     </row>
     <row r="142">
@@ -5400,10 +5400,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.099116</v>
+        <v>0.114634</v>
       </c>
       <c r="D142" t="n">
-        <v>0.945972</v>
+        <v>0.712207</v>
       </c>
     </row>
     <row r="143">
@@ -5416,10 +5416,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.016138</v>
+        <v>0.018665</v>
       </c>
       <c r="D143" t="n">
-        <v>0.025981</v>
+        <v>0.019561</v>
       </c>
     </row>
     <row r="144">
@@ -5432,10 +5432,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-0.000141</v>
+        <v>-0.000163</v>
       </c>
       <c r="D144" t="n">
-        <v>0.035105</v>
+        <v>0.02643</v>
       </c>
     </row>
     <row r="145">
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.026167</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="146">
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.093264</v>
+        <v>0.107866</v>
       </c>
       <c r="D146" t="n">
-        <v>0.04417</v>
+        <v>0.033255</v>
       </c>
     </row>
     <row r="147">
@@ -5477,10 +5477,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.000477</v>
+        <v>0.000552</v>
       </c>
       <c r="D147" t="n">
-        <v>0.004767</v>
+        <v>0.003589</v>
       </c>
     </row>
     <row r="148">
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.009946</v>
+        <v>0.007488</v>
       </c>
     </row>
     <row r="149">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.000394</v>
+        <v>-0.000297</v>
       </c>
     </row>
     <row r="150">
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-0.004891</v>
+        <v>-0.005657</v>
       </c>
       <c r="D150" t="n">
-        <v>0.002929</v>
+        <v>0.002205</v>
       </c>
     </row>
     <row r="151">
@@ -5535,10 +5535,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.000274</v>
+        <v>0.000317</v>
       </c>
       <c r="D151" t="n">
-        <v>0.012968</v>
+        <v>0.009763000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -5551,10 +5551,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.017533</v>
+        <v>0.020278</v>
       </c>
       <c r="D152" t="n">
-        <v>0.15197</v>
+        <v>0.114416</v>
       </c>
     </row>
     <row r="153">
@@ -5567,10 +5567,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.064842</v>
+        <v>0.074993</v>
       </c>
       <c r="D153" t="n">
-        <v>0.035947</v>
+        <v>0.027064</v>
       </c>
     </row>
     <row r="154">
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-0.000937</v>
+        <v>-0.001084</v>
       </c>
       <c r="D154" t="n">
-        <v>0.001697</v>
+        <v>0.001278</v>
       </c>
     </row>
     <row r="155">
@@ -5599,10 +5599,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.001248</v>
+        <v>0.001444</v>
       </c>
       <c r="D155" t="n">
-        <v>0.013784</v>
+        <v>0.010378</v>
       </c>
     </row>
     <row r="156">
@@ -5615,10 +5615,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.006639</v>
+        <v>0.007678</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009315</v>
+        <v>0.007013</v>
       </c>
     </row>
     <row r="157">
@@ -5631,10 +5631,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.003977</v>
+        <v>0.0046</v>
       </c>
       <c r="D157" t="n">
-        <v>0.006186</v>
+        <v>0.004657</v>
       </c>
     </row>
     <row r="158">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.004085</v>
+        <v>0.004724</v>
       </c>
       <c r="D158" t="n">
-        <v>0.006361</v>
+        <v>0.004789</v>
       </c>
     </row>
     <row r="159">
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-0.002338</v>
+        <v>-0.002704</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.004888</v>
+        <v>-0.00368</v>
       </c>
     </row>
     <row r="160">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.032241</v>
+        <v>0.037288</v>
       </c>
       <c r="D160" t="n">
-        <v>0.040234</v>
+        <v>0.030291</v>
       </c>
     </row>
     <row r="161">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.06622500000000001</v>
+        <v>0.07659299999999999</v>
       </c>
       <c r="D161" t="n">
-        <v>0.085211</v>
+        <v>0.064154</v>
       </c>
     </row>
     <row r="162">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.056912</v>
+        <v>0.06582200000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>0.07316499999999999</v>
+        <v>0.055085</v>
       </c>
     </row>
     <row r="163">
@@ -5727,10 +5727,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>-0.001171</v>
+        <v>-0.001354</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.002822</v>
+        <v>-0.002124</v>
       </c>
     </row>
     <row r="164">
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.001293</v>
+        <v>0.001495</v>
       </c>
       <c r="D164" t="n">
-        <v>0.025742</v>
+        <v>0.019381</v>
       </c>
     </row>
     <row r="165">
@@ -5759,10 +5759,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-0.004662</v>
+        <v>-0.005392</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.000318</v>
+        <v>-0.00024</v>
       </c>
     </row>
     <row r="166">
@@ -5775,10 +5775,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.013788</v>
+        <v>0.015947</v>
       </c>
       <c r="D166" t="n">
-        <v>0.062185</v>
+        <v>0.046818</v>
       </c>
     </row>
     <row r="167">
@@ -5791,10 +5791,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.006342</v>
+        <v>0.007335</v>
       </c>
       <c r="D167" t="n">
-        <v>0.018142</v>
+        <v>0.013659</v>
       </c>
     </row>
     <row r="168">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.004371</v>
+        <v>0.005055</v>
       </c>
       <c r="D168" t="n">
-        <v>0.013445</v>
+        <v>0.010123</v>
       </c>
     </row>
     <row r="169">
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.004941</v>
+        <v>0.005715</v>
       </c>
       <c r="D169" t="n">
-        <v>0.007182</v>
+        <v>0.005407</v>
       </c>
     </row>
     <row r="170">
@@ -5839,10 +5839,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-0.004036</v>
+        <v>-0.004668</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.003305</v>
+        <v>-0.002488</v>
       </c>
     </row>
     <row r="171">
@@ -5855,10 +5855,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-0.001134</v>
+        <v>-0.001312</v>
       </c>
       <c r="D171" t="n">
-        <v>0.000132</v>
+        <v>9.899999999999999e-05</v>
       </c>
     </row>
     <row r="172">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.014017</v>
+        <v>0.016211</v>
       </c>
       <c r="D172" t="n">
-        <v>0.03246</v>
+        <v>0.024439</v>
       </c>
     </row>
     <row r="173">
@@ -5887,10 +5887,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-0.00134</v>
+        <v>-0.00155</v>
       </c>
       <c r="D173" t="n">
-        <v>0.02399</v>
+        <v>0.018062</v>
       </c>
     </row>
     <row r="174">
@@ -5903,10 +5903,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-0.001954</v>
+        <v>-0.002259</v>
       </c>
       <c r="D174" t="n">
-        <v>0.022291</v>
+        <v>0.016783</v>
       </c>
     </row>
     <row r="175">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>-0.00102</v>
+        <v>-0.00118</v>
       </c>
       <c r="D175" t="n">
-        <v>0.024759</v>
+        <v>0.018641</v>
       </c>
     </row>
     <row r="176">
@@ -5935,10 +5935,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-0.003599</v>
+        <v>-0.004162</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.00174</v>
+        <v>-0.00131</v>
       </c>
     </row>
     <row r="177">
@@ -5951,10 +5951,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.004277</v>
+        <v>0.004946</v>
       </c>
       <c r="D177" t="n">
-        <v>0.013094</v>
+        <v>0.009858</v>
       </c>
     </row>
     <row r="178">
@@ -5967,10 +5967,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-0.005224</v>
+        <v>-0.006042</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.001439</v>
+        <v>-0.001083</v>
       </c>
     </row>
     <row r="179">
@@ -5983,10 +5983,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.000418</v>
+        <v>0.000484</v>
       </c>
       <c r="D179" t="n">
-        <v>0.003704</v>
+        <v>0.002788</v>
       </c>
     </row>
     <row r="180">
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.026602</v>
+        <v>0.030767</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1636</v>
+        <v>0.123172</v>
       </c>
     </row>
     <row r="181">
@@ -6015,10 +6015,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.016894</v>
+        <v>0.019539</v>
       </c>
       <c r="D181" t="n">
-        <v>0.08164100000000001</v>
+        <v>0.061466</v>
       </c>
     </row>
     <row r="182">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.017116</v>
+        <v>0.019795</v>
       </c>
       <c r="D182" t="n">
-        <v>0.08298</v>
+        <v>0.062474</v>
       </c>
     </row>
     <row r="183">
@@ -6047,10 +6047,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.005264</v>
+        <v>0.006088</v>
       </c>
       <c r="D183" t="n">
-        <v>0.014917</v>
+        <v>0.011231</v>
       </c>
     </row>
     <row r="184">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.002434</v>
+        <v>0.002815</v>
       </c>
       <c r="D184" t="n">
-        <v>0.042341</v>
+        <v>0.031878</v>
       </c>
     </row>
     <row r="185">
@@ -6079,10 +6079,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.006455</v>
+        <v>0.007466</v>
       </c>
       <c r="D185" t="n">
-        <v>0.024582</v>
+        <v>0.018507</v>
       </c>
     </row>
     <row r="186">
@@ -6095,10 +6095,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.122603</v>
+        <v>0.141798</v>
       </c>
       <c r="D186" t="n">
-        <v>0.168661</v>
+        <v>0.126982</v>
       </c>
     </row>
     <row r="187">
@@ -6111,7 +6111,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.009204</v>
+        <v>0.00693</v>
       </c>
     </row>
     <row r="188">
@@ -6124,10 +6124,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.010247</v>
+        <v>0.011852</v>
       </c>
       <c r="D188" t="n">
-        <v>0.025136</v>
+        <v>0.018924</v>
       </c>
     </row>
     <row r="189">
@@ -6140,10 +6140,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>-0.00186</v>
+        <v>-0.002152</v>
       </c>
       <c r="D189" t="n">
-        <v>0.018799</v>
+        <v>0.014153</v>
       </c>
     </row>
     <row r="190">
@@ -6156,10 +6156,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.104937</v>
+        <v>0.121365</v>
       </c>
       <c r="D190" t="n">
-        <v>0.136444</v>
+        <v>0.102727</v>
       </c>
     </row>
     <row r="191">
@@ -6172,10 +6172,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>-0.004884</v>
+        <v>-0.005649</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.005632</v>
+        <v>-0.00424</v>
       </c>
     </row>
     <row r="192">
@@ -6188,10 +6188,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>-0.004884</v>
+        <v>-0.005649</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.005632</v>
+        <v>-0.00424</v>
       </c>
     </row>
     <row r="193">
@@ -6204,10 +6204,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>-0.002847</v>
+        <v>-0.003293</v>
       </c>
       <c r="D193" t="n">
-        <v>0.006956</v>
+        <v>0.005237</v>
       </c>
     </row>
     <row r="194">
@@ -6220,10 +6220,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>-0.002849</v>
+        <v>-0.003295</v>
       </c>
       <c r="D194" t="n">
-        <v>0.006964</v>
+        <v>0.005243</v>
       </c>
     </row>
     <row r="195">
@@ -6236,10 +6236,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>-0.002847</v>
+        <v>-0.003293</v>
       </c>
       <c r="D195" t="n">
-        <v>0.006956</v>
+        <v>0.005237</v>
       </c>
     </row>
     <row r="196">
@@ -6252,10 +6252,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.01174</v>
+        <v>0.013578</v>
       </c>
       <c r="D196" t="n">
-        <v>0.029857</v>
+        <v>0.022479</v>
       </c>
     </row>
     <row r="197">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.005852</v>
+        <v>0.006768</v>
       </c>
       <c r="D197" t="n">
-        <v>0.020623</v>
+        <v>0.015526</v>
       </c>
     </row>
   </sheetData>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000808</v>
+        <v>0.000608</v>
       </c>
     </row>
     <row r="4">
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.030414</v>
+        <v>0.035175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.078138</v>
+        <v>0.058828</v>
       </c>
     </row>
     <row r="5">
@@ -6368,10 +6368,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.002789</v>
+        <v>0.003225</v>
       </c>
       <c r="D5" t="n">
-        <v>0.077247</v>
+        <v>0.058158</v>
       </c>
     </row>
     <row r="6">
@@ -6384,10 +6384,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.014178</v>
+        <v>0.016398</v>
       </c>
       <c r="D6" t="n">
-        <v>0.026373</v>
+        <v>0.019856</v>
       </c>
     </row>
     <row r="7">
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.003329</v>
+        <v>0.002507</v>
       </c>
     </row>
     <row r="8">
@@ -6413,10 +6413,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.31416</v>
+        <v>0.363343</v>
       </c>
       <c r="D8" t="n">
-        <v>0.432846</v>
+        <v>0.325883</v>
       </c>
     </row>
     <row r="9">
@@ -6445,10 +6445,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.08268499999999999</v>
+        <v>0.09563000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166647</v>
+        <v>0.125466</v>
       </c>
     </row>
     <row r="11">
@@ -6461,10 +6461,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.163548</v>
+        <v>0.189153</v>
       </c>
       <c r="D11" t="n">
-        <v>0.332944</v>
+        <v>0.250668</v>
       </c>
     </row>
     <row r="12">
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004367</v>
+        <v>0.003288</v>
       </c>
     </row>
     <row r="14">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01204</v>
+        <v>0.013925</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004442</v>
+        <v>0.003344</v>
       </c>
     </row>
     <row r="17">
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.029362</v>
+        <v>0.022106</v>
       </c>
     </row>
     <row r="20">
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001673</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="25">
@@ -6661,10 +6661,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.004655</v>
+        <v>0.005384</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10648</v>
+        <v>0.080167</v>
       </c>
     </row>
     <row r="26">
@@ -6690,7 +6690,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.008812</v>
+        <v>0.006635</v>
       </c>
     </row>
     <row r="28">
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07671500000000001</v>
+        <v>0.057758</v>
       </c>
     </row>
     <row r="29">
@@ -6719,10 +6719,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.000816</v>
+        <v>0.000944</v>
       </c>
       <c r="D29" t="n">
-        <v>0.005323</v>
+        <v>0.004007</v>
       </c>
     </row>
     <row r="30">
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.029201</v>
+        <v>0.021985</v>
       </c>
     </row>
     <row r="31">
@@ -6764,10 +6764,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.002563</v>
+        <v>0.002964</v>
       </c>
       <c r="D32" t="n">
-        <v>0.093362</v>
+        <v>0.07029100000000001</v>
       </c>
     </row>
     <row r="33">
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.002795</v>
+        <v>0.002104</v>
       </c>
     </row>
     <row r="34">
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000178</v>
+        <v>0.000134</v>
       </c>
     </row>
     <row r="35">
@@ -6809,10 +6809,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.002693</v>
+        <v>0.003114</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00236</v>
+        <v>0.001777</v>
       </c>
     </row>
     <row r="36">
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000802</v>
+        <v>0.000604</v>
       </c>
     </row>
     <row r="38">
@@ -6857,10 +6857,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.012708</v>
+        <v>0.014697</v>
       </c>
       <c r="D38" t="n">
-        <v>0.026608</v>
+        <v>0.020032</v>
       </c>
     </row>
     <row r="39">
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.001597</v>
+        <v>0.001202</v>
       </c>
     </row>
     <row r="41">
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.042691</v>
+        <v>0.032141</v>
       </c>
     </row>
     <row r="42">
@@ -6915,10 +6915,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.008152</v>
+        <v>0.009428000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.014674</v>
+        <v>0.011048</v>
       </c>
     </row>
     <row r="43">
@@ -6944,10 +6944,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.106926</v>
+        <v>0.123666</v>
       </c>
       <c r="D44" t="n">
-        <v>0.217926</v>
+        <v>0.164073</v>
       </c>
     </row>
     <row r="45">
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.021289</v>
+        <v>0.016028</v>
       </c>
     </row>
     <row r="46">
@@ -6973,7 +6973,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.006716</v>
+        <v>0.005056</v>
       </c>
     </row>
     <row r="47">
@@ -6999,7 +6999,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.012429</v>
+        <v>0.009358</v>
       </c>
     </row>
     <row r="49">
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.193053</v>
+        <v>0.145347</v>
       </c>
     </row>
     <row r="51">
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.016725</v>
+        <v>0.012592</v>
       </c>
     </row>
     <row r="55">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.006099</v>
+        <v>0.007054</v>
       </c>
       <c r="D63" t="n">
-        <v>0.007366</v>
+        <v>0.005546</v>
       </c>
     </row>
     <row r="64">
@@ -7228,10 +7228,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.075131</v>
+        <v>0.086894</v>
       </c>
       <c r="D64" t="n">
-        <v>0.163714</v>
+        <v>0.123258</v>
       </c>
     </row>
     <row r="65">
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.23829</v>
+        <v>0.179405</v>
       </c>
     </row>
     <row r="66">
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.011592</v>
+        <v>0.013407</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.010677</v>
+        <v>0.012349</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -7350,10 +7350,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.064106</v>
+        <v>0.074142</v>
       </c>
       <c r="D72" t="n">
-        <v>0.271077</v>
+        <v>0.20409</v>
       </c>
     </row>
     <row r="73">
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.052425</v>
+        <v>0.060632</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0019</v>
+        <v>0.00143</v>
       </c>
     </row>
     <row r="78">
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.000429</v>
+        <v>0.000323</v>
       </c>
     </row>
     <row r="79">
@@ -7450,7 +7450,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.013838</v>
+        <v>0.010418</v>
       </c>
     </row>
     <row r="80">
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.002212</v>
+        <v>0.001665</v>
       </c>
     </row>
     <row r="82">
@@ -7489,10 +7489,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.038704</v>
+        <v>0.044763</v>
       </c>
       <c r="D82" t="n">
-        <v>0.53015</v>
+        <v>0.399141</v>
       </c>
     </row>
     <row r="83">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.116082</v>
+        <v>0.134255</v>
       </c>
       <c r="D86" t="n">
-        <v>0.084816</v>
+        <v>0.063857</v>
       </c>
     </row>
     <row r="87">
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02053</v>
+        <v>0.015457</v>
       </c>
     </row>
     <row r="90">
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.078335</v>
+        <v>0.058978</v>
       </c>
     </row>
     <row r="92">
@@ -7641,7 +7641,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.002784</v>
+        <v>0.00322</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -7657,10 +7657,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.015702</v>
+        <v>0.018161</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001735</v>
+        <v>0.001306</v>
       </c>
     </row>
     <row r="95">
@@ -7699,10 +7699,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.043347</v>
+        <v>0.050133</v>
       </c>
       <c r="D97" t="n">
-        <v>0.006013</v>
+        <v>0.004527</v>
       </c>
     </row>
     <row r="98">
@@ -7715,10 +7715,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.044747</v>
+        <v>0.051752</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07018199999999999</v>
+        <v>0.052839</v>
       </c>
     </row>
     <row r="99">
@@ -7757,10 +7757,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.005691</v>
+        <v>0.006582</v>
       </c>
       <c r="D101" t="n">
-        <v>0.020684</v>
+        <v>0.015573</v>
       </c>
     </row>
     <row r="102">
@@ -7786,10 +7786,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.72927</v>
+        <v>0.8434430000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.671774</v>
+        <v>0.505767</v>
       </c>
     </row>
     <row r="104">
@@ -7802,10 +7802,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.143836</v>
+        <v>0.166355</v>
       </c>
       <c r="D104" t="n">
-        <v>0.612707</v>
+        <v>0.461297</v>
       </c>
     </row>
     <row r="105">
@@ -7847,10 +7847,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.057851</v>
+        <v>0.066908</v>
       </c>
       <c r="D107" t="n">
-        <v>0.032338</v>
+        <v>0.024347</v>
       </c>
     </row>
     <row r="108">
@@ -7863,7 +7863,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.0009829999999999999</v>
+        <v>0.00074</v>
       </c>
     </row>
     <row r="109">
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.025515</v>
+        <v>0.01921</v>
       </c>
     </row>
     <row r="110">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.003588</v>
+        <v>0.002701</v>
       </c>
     </row>
     <row r="112">
@@ -7953,10 +7953,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.00826</v>
+        <v>0.009553000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.002719</v>
+        <v>0.002047</v>
       </c>
     </row>
     <row r="115">
@@ -7969,10 +7969,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.125423</v>
+        <v>0.145059</v>
       </c>
       <c r="D115" t="n">
-        <v>0.157702</v>
+        <v>0.118732</v>
       </c>
     </row>
     <row r="116">
@@ -7998,10 +7998,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.039659</v>
+        <v>0.045868</v>
       </c>
       <c r="D117" t="n">
-        <v>0.607598</v>
+        <v>0.457451</v>
       </c>
     </row>
     <row r="118">
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.000796</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.020292</v>
+        <v>0.015278</v>
       </c>
     </row>
     <row r="125">
@@ -8143,7 +8143,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.017339</v>
+        <v>0.013054</v>
       </c>
     </row>
     <row r="128">
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.016642</v>
+        <v>0.012529</v>
       </c>
     </row>
     <row r="129">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.015675</v>
+        <v>0.018129</v>
       </c>
       <c r="D133" t="n">
-        <v>0.004294</v>
+        <v>0.003233</v>
       </c>
     </row>
     <row r="134">
@@ -8243,10 +8243,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.195809</v>
+        <v>0.226464</v>
       </c>
       <c r="D134" t="n">
-        <v>0.078871</v>
+        <v>0.059381</v>
       </c>
     </row>
     <row r="135">
@@ -8272,10 +8272,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.343588</v>
+        <v>0.397379</v>
       </c>
       <c r="D136" t="n">
-        <v>0.15841</v>
+        <v>0.119264</v>
       </c>
     </row>
     <row r="137">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>0.001352</v>
+        <v>0.001018</v>
       </c>
     </row>
     <row r="138">
@@ -8317,10 +8317,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.333673</v>
+        <v>0.385911</v>
       </c>
       <c r="D139" t="n">
-        <v>0.158197</v>
+        <v>0.119104</v>
       </c>
     </row>
     <row r="140">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.004098</v>
+        <v>0.00474</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -8362,10 +8362,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.099116</v>
+        <v>0.114634</v>
       </c>
       <c r="D142" t="n">
-        <v>0.945972</v>
+        <v>0.712207</v>
       </c>
     </row>
     <row r="143">
@@ -8378,10 +8378,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.016138</v>
+        <v>0.018665</v>
       </c>
       <c r="D143" t="n">
-        <v>0.025981</v>
+        <v>0.019561</v>
       </c>
     </row>
     <row r="144">
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>0.035105</v>
+        <v>0.02643</v>
       </c>
     </row>
     <row r="145">
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.026167</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="146">
@@ -8423,10 +8423,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.093264</v>
+        <v>0.107866</v>
       </c>
       <c r="D146" t="n">
-        <v>0.04417</v>
+        <v>0.033255</v>
       </c>
     </row>
     <row r="147">
@@ -8439,10 +8439,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.000477</v>
+        <v>0.000552</v>
       </c>
       <c r="D147" t="n">
-        <v>0.004767</v>
+        <v>0.003589</v>
       </c>
     </row>
     <row r="148">
@@ -8455,7 +8455,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.009946</v>
+        <v>0.007488</v>
       </c>
     </row>
     <row r="149">
@@ -8484,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0.002929</v>
+        <v>0.002205</v>
       </c>
     </row>
     <row r="151">
@@ -8497,10 +8497,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.000274</v>
+        <v>0.000317</v>
       </c>
       <c r="D151" t="n">
-        <v>0.012968</v>
+        <v>0.009763000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -8513,10 +8513,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.017533</v>
+        <v>0.020278</v>
       </c>
       <c r="D152" t="n">
-        <v>0.15197</v>
+        <v>0.114416</v>
       </c>
     </row>
     <row r="153">
@@ -8529,10 +8529,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.064842</v>
+        <v>0.074993</v>
       </c>
       <c r="D153" t="n">
-        <v>0.035947</v>
+        <v>0.027064</v>
       </c>
     </row>
     <row r="154">
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>0.001697</v>
+        <v>0.001278</v>
       </c>
     </row>
     <row r="155">
@@ -8561,10 +8561,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.001248</v>
+        <v>0.001444</v>
       </c>
       <c r="D155" t="n">
-        <v>0.013784</v>
+        <v>0.010378</v>
       </c>
     </row>
     <row r="156">
@@ -8577,10 +8577,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.006639</v>
+        <v>0.007678</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009315</v>
+        <v>0.007013</v>
       </c>
     </row>
     <row r="157">
@@ -8593,10 +8593,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.003977</v>
+        <v>0.0046</v>
       </c>
       <c r="D157" t="n">
-        <v>0.006186</v>
+        <v>0.004657</v>
       </c>
     </row>
     <row r="158">
@@ -8609,10 +8609,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.004085</v>
+        <v>0.004724</v>
       </c>
       <c r="D158" t="n">
-        <v>0.006361</v>
+        <v>0.004789</v>
       </c>
     </row>
     <row r="159">
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.032241</v>
+        <v>0.037288</v>
       </c>
       <c r="D160" t="n">
-        <v>0.040234</v>
+        <v>0.030291</v>
       </c>
     </row>
     <row r="161">
@@ -8657,10 +8657,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.06622500000000001</v>
+        <v>0.07659299999999999</v>
       </c>
       <c r="D161" t="n">
-        <v>0.085211</v>
+        <v>0.064154</v>
       </c>
     </row>
     <row r="162">
@@ -8673,10 +8673,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.056912</v>
+        <v>0.06582200000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>0.07316499999999999</v>
+        <v>0.055085</v>
       </c>
     </row>
     <row r="163">
@@ -8705,10 +8705,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.001293</v>
+        <v>0.001495</v>
       </c>
       <c r="D164" t="n">
-        <v>0.025742</v>
+        <v>0.019381</v>
       </c>
     </row>
     <row r="165">
@@ -8737,10 +8737,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.013788</v>
+        <v>0.015947</v>
       </c>
       <c r="D166" t="n">
-        <v>0.062185</v>
+        <v>0.046818</v>
       </c>
     </row>
     <row r="167">
@@ -8753,10 +8753,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.006342</v>
+        <v>0.007335</v>
       </c>
       <c r="D167" t="n">
-        <v>0.018142</v>
+        <v>0.013659</v>
       </c>
     </row>
     <row r="168">
@@ -8769,10 +8769,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.004371</v>
+        <v>0.005055</v>
       </c>
       <c r="D168" t="n">
-        <v>0.013445</v>
+        <v>0.010123</v>
       </c>
     </row>
     <row r="169">
@@ -8785,10 +8785,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.004941</v>
+        <v>0.005715</v>
       </c>
       <c r="D169" t="n">
-        <v>0.007182</v>
+        <v>0.005407</v>
       </c>
     </row>
     <row r="170">
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0.000132</v>
+        <v>9.899999999999999e-05</v>
       </c>
     </row>
     <row r="172">
@@ -8833,10 +8833,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.014017</v>
+        <v>0.016211</v>
       </c>
       <c r="D172" t="n">
-        <v>0.03246</v>
+        <v>0.024439</v>
       </c>
     </row>
     <row r="173">
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0.02399</v>
+        <v>0.018062</v>
       </c>
     </row>
     <row r="174">
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0.022291</v>
+        <v>0.016783</v>
       </c>
     </row>
     <row r="175">
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>0.024759</v>
+        <v>0.018641</v>
       </c>
     </row>
     <row r="176">
@@ -8913,10 +8913,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.004277</v>
+        <v>0.004946</v>
       </c>
       <c r="D177" t="n">
-        <v>0.013094</v>
+        <v>0.009858</v>
       </c>
     </row>
     <row r="178">
@@ -8945,10 +8945,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.000418</v>
+        <v>0.000484</v>
       </c>
       <c r="D179" t="n">
-        <v>0.003704</v>
+        <v>0.002788</v>
       </c>
     </row>
     <row r="180">
@@ -8961,10 +8961,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.026602</v>
+        <v>0.030767</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1636</v>
+        <v>0.123172</v>
       </c>
     </row>
     <row r="181">
@@ -8977,10 +8977,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.016894</v>
+        <v>0.019539</v>
       </c>
       <c r="D181" t="n">
-        <v>0.08164100000000001</v>
+        <v>0.061466</v>
       </c>
     </row>
     <row r="182">
@@ -8993,10 +8993,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.017116</v>
+        <v>0.019795</v>
       </c>
       <c r="D182" t="n">
-        <v>0.08298</v>
+        <v>0.062474</v>
       </c>
     </row>
     <row r="183">
@@ -9009,10 +9009,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.005264</v>
+        <v>0.006088</v>
       </c>
       <c r="D183" t="n">
-        <v>0.014917</v>
+        <v>0.011231</v>
       </c>
     </row>
     <row r="184">
@@ -9025,10 +9025,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.002434</v>
+        <v>0.002815</v>
       </c>
       <c r="D184" t="n">
-        <v>0.042341</v>
+        <v>0.031878</v>
       </c>
     </row>
     <row r="185">
@@ -9041,10 +9041,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.006455</v>
+        <v>0.007466</v>
       </c>
       <c r="D185" t="n">
-        <v>0.024582</v>
+        <v>0.018507</v>
       </c>
     </row>
     <row r="186">
@@ -9057,10 +9057,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.122603</v>
+        <v>0.141798</v>
       </c>
       <c r="D186" t="n">
-        <v>0.168661</v>
+        <v>0.126982</v>
       </c>
     </row>
     <row r="187">
@@ -9073,7 +9073,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.009204</v>
+        <v>0.00693</v>
       </c>
     </row>
     <row r="188">
@@ -9086,10 +9086,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.010247</v>
+        <v>0.011852</v>
       </c>
       <c r="D188" t="n">
-        <v>0.025136</v>
+        <v>0.018924</v>
       </c>
     </row>
     <row r="189">
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>0.018799</v>
+        <v>0.014153</v>
       </c>
     </row>
     <row r="190">
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.104937</v>
+        <v>0.121365</v>
       </c>
       <c r="D190" t="n">
-        <v>0.136444</v>
+        <v>0.102727</v>
       </c>
     </row>
     <row r="191">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>0.006956</v>
+        <v>0.005237</v>
       </c>
     </row>
     <row r="194">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>0.006964</v>
+        <v>0.005243</v>
       </c>
     </row>
     <row r="195">
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>0.006956</v>
+        <v>0.005237</v>
       </c>
     </row>
     <row r="196">
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.01174</v>
+        <v>0.013578</v>
       </c>
       <c r="D196" t="n">
-        <v>0.029857</v>
+        <v>0.022479</v>
       </c>
     </row>
     <row r="197">
@@ -9230,10 +9230,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.005852</v>
+        <v>0.006768</v>
       </c>
       <c r="D197" t="n">
-        <v>0.020623</v>
+        <v>0.015526</v>
       </c>
     </row>
   </sheetData>
@@ -9292,10 +9292,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.009133</v>
+        <v>-0.006876</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.005651</v>
+        <v>-0.006535</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -9314,16 +9314,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.005313</v>
+        <v>-0.006145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000808</v>
+        <v>0.000608</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000808</v>
+        <v>0.000608</v>
       </c>
     </row>
     <row r="4">
@@ -9336,16 +9336,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.030414</v>
+        <v>0.035175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.078138</v>
+        <v>0.058828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.030414</v>
+        <v>0.035175</v>
       </c>
       <c r="F4" t="n">
-        <v>0.078138</v>
+        <v>0.058828</v>
       </c>
     </row>
     <row r="5">
@@ -9358,16 +9358,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.002789</v>
+        <v>0.003225</v>
       </c>
       <c r="D5" t="n">
-        <v>0.077247</v>
+        <v>0.058158</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002789</v>
+        <v>0.003225</v>
       </c>
       <c r="F5" t="n">
-        <v>0.077247</v>
+        <v>0.058158</v>
       </c>
     </row>
     <row r="6">
@@ -9380,16 +9380,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.014178</v>
+        <v>0.016398</v>
       </c>
       <c r="D6" t="n">
-        <v>0.026373</v>
+        <v>0.019856</v>
       </c>
       <c r="E6" t="n">
-        <v>0.014178</v>
+        <v>0.016398</v>
       </c>
       <c r="F6" t="n">
-        <v>0.026373</v>
+        <v>0.019856</v>
       </c>
     </row>
     <row r="7">
@@ -9402,16 +9402,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.003329</v>
+        <v>0.002507</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003329</v>
+        <v>0.002507</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003329</v>
+        <v>0.002507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003329</v>
+        <v>0.002507</v>
       </c>
     </row>
     <row r="8">
@@ -9424,16 +9424,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.31416</v>
+        <v>0.325883</v>
       </c>
       <c r="D8" t="n">
-        <v>0.432846</v>
+        <v>0.363343</v>
       </c>
       <c r="E8" t="n">
-        <v>0.31416</v>
+        <v>0.325883</v>
       </c>
       <c r="F8" t="n">
-        <v>0.432846</v>
+        <v>0.363343</v>
       </c>
     </row>
     <row r="9">
@@ -9446,10 +9446,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.003017</v>
+        <v>-0.002271</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.001435</v>
+        <v>-0.00166</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9468,16 +9468,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.08268499999999999</v>
+        <v>0.09563000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166647</v>
+        <v>0.125466</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08268499999999999</v>
+        <v>0.09563000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.166647</v>
+        <v>0.125466</v>
       </c>
     </row>
     <row r="11">
@@ -9490,16 +9490,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.163548</v>
+        <v>0.189153</v>
       </c>
       <c r="D11" t="n">
-        <v>0.332944</v>
+        <v>0.250668</v>
       </c>
       <c r="E11" t="n">
-        <v>0.163548</v>
+        <v>0.189153</v>
       </c>
       <c r="F11" t="n">
-        <v>0.332944</v>
+        <v>0.250668</v>
       </c>
     </row>
     <row r="12">
@@ -9512,10 +9512,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.008829</v>
+        <v>-0.006647</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003579</v>
+        <v>-0.004139</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9534,16 +9534,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.005154</v>
+        <v>-0.005961</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004367</v>
+        <v>0.003288</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004367</v>
+        <v>0.003288</v>
       </c>
     </row>
     <row r="14">
@@ -9556,10 +9556,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.008540000000000001</v>
+        <v>-0.00643</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.008540000000000001</v>
+        <v>-0.00643</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -9578,10 +9578,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.005953</v>
+        <v>-0.004482</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.005953</v>
+        <v>-0.004482</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9600,16 +9600,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.004442</v>
+        <v>0.003344</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01204</v>
+        <v>0.013925</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004442</v>
+        <v>0.003344</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01204</v>
+        <v>0.013925</v>
       </c>
     </row>
     <row r="17">
@@ -9622,10 +9622,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.004058</v>
+        <v>-0.003055</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.004058</v>
+        <v>-0.003055</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.004369</v>
+        <v>-0.003289</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.004369</v>
+        <v>-0.003289</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -9666,16 +9666,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.004149</v>
+        <v>-0.004798</v>
       </c>
       <c r="D19" t="n">
-        <v>0.029362</v>
+        <v>0.022106</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.029362</v>
+        <v>0.022106</v>
       </c>
     </row>
     <row r="20">
@@ -9688,10 +9688,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.003476</v>
+        <v>-0.002617</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.003476</v>
+        <v>-0.002617</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -9710,10 +9710,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.001948</v>
+        <v>-0.001467</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.001948</v>
+        <v>-0.001467</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.005164</v>
+        <v>-0.003888</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.005164</v>
+        <v>-0.003888</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -9754,10 +9754,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.008364999999999999</v>
+        <v>-0.006298</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.008364999999999999</v>
+        <v>-0.006298</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -9776,16 +9776,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.001444</v>
+        <v>-0.001671</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001673</v>
+        <v>0.00126</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.001673</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="25">
@@ -9798,16 +9798,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.004655</v>
+        <v>0.005384</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10648</v>
+        <v>0.080167</v>
       </c>
       <c r="E25" t="n">
-        <v>0.004655</v>
+        <v>0.005384</v>
       </c>
       <c r="F25" t="n">
-        <v>0.10648</v>
+        <v>0.080167</v>
       </c>
     </row>
     <row r="26">
@@ -9820,10 +9820,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.004814</v>
+        <v>-0.003625</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.004814</v>
+        <v>-0.003625</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -9842,16 +9842,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.008812</v>
+        <v>0.006635</v>
       </c>
       <c r="D27" t="n">
-        <v>0.008812</v>
+        <v>0.006635</v>
       </c>
       <c r="E27" t="n">
-        <v>0.008812</v>
+        <v>0.006635</v>
       </c>
       <c r="F27" t="n">
-        <v>0.008812</v>
+        <v>0.006635</v>
       </c>
     </row>
     <row r="28">
@@ -9864,16 +9864,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.004464</v>
+        <v>-0.005162</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07671500000000001</v>
+        <v>0.057758</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07671500000000001</v>
+        <v>0.057758</v>
       </c>
     </row>
     <row r="29">
@@ -9886,16 +9886,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.000816</v>
+        <v>0.000944</v>
       </c>
       <c r="D29" t="n">
-        <v>0.005323</v>
+        <v>0.004007</v>
       </c>
       <c r="E29" t="n">
-        <v>0.000816</v>
+        <v>0.000944</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005323</v>
+        <v>0.004007</v>
       </c>
     </row>
     <row r="30">
@@ -9908,16 +9908,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.001898</v>
+        <v>-0.002195</v>
       </c>
       <c r="D30" t="n">
-        <v>0.029201</v>
+        <v>0.021985</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.029201</v>
+        <v>0.021985</v>
       </c>
     </row>
     <row r="31">
@@ -9930,10 +9930,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.00084</v>
+        <v>-0.000632</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.00084</v>
+        <v>-0.000632</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -9952,16 +9952,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.002563</v>
+        <v>0.002964</v>
       </c>
       <c r="D32" t="n">
-        <v>0.093362</v>
+        <v>0.07029100000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002563</v>
+        <v>0.002964</v>
       </c>
       <c r="F32" t="n">
-        <v>0.093362</v>
+        <v>0.07029100000000001</v>
       </c>
     </row>
     <row r="33">
@@ -9974,16 +9974,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.002795</v>
+        <v>0.002104</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002795</v>
+        <v>0.002104</v>
       </c>
       <c r="E33" t="n">
-        <v>0.002795</v>
+        <v>0.002104</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002795</v>
+        <v>0.002104</v>
       </c>
     </row>
     <row r="34">
@@ -9996,16 +9996,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.00162</v>
+        <v>-0.001873</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000178</v>
+        <v>0.000134</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.000178</v>
+        <v>0.000134</v>
       </c>
     </row>
     <row r="35">
@@ -10018,16 +10018,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.00236</v>
+        <v>0.001777</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002693</v>
+        <v>0.003114</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00236</v>
+        <v>0.001777</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002693</v>
+        <v>0.003114</v>
       </c>
     </row>
     <row r="36">
@@ -10040,10 +10040,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.00462</v>
+        <v>-0.005344</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.000706</v>
+        <v>-0.000532</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -10062,16 +10062,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.004801</v>
+        <v>-0.005552</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000802</v>
+        <v>0.000604</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.000802</v>
+        <v>0.000604</v>
       </c>
     </row>
     <row r="38">
@@ -10084,16 +10084,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.012708</v>
+        <v>0.014697</v>
       </c>
       <c r="D38" t="n">
-        <v>0.026608</v>
+        <v>0.020032</v>
       </c>
       <c r="E38" t="n">
-        <v>0.012708</v>
+        <v>0.014697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.026608</v>
+        <v>0.020032</v>
       </c>
     </row>
     <row r="39">
@@ -10106,10 +10106,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.008451</v>
+        <v>-0.006363</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.008451</v>
+        <v>-0.006363</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -10128,16 +10128,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.001597</v>
+        <v>0.001202</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001597</v>
+        <v>0.001202</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001597</v>
+        <v>0.001202</v>
       </c>
       <c r="F40" t="n">
-        <v>0.001597</v>
+        <v>0.001202</v>
       </c>
     </row>
     <row r="41">
@@ -10150,16 +10150,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.005461</v>
+        <v>-0.006316</v>
       </c>
       <c r="D41" t="n">
-        <v>0.042691</v>
+        <v>0.032141</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.042691</v>
+        <v>0.032141</v>
       </c>
     </row>
     <row r="42">
@@ -10172,16 +10172,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.008152</v>
+        <v>0.009428000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.014674</v>
+        <v>0.011048</v>
       </c>
       <c r="E42" t="n">
-        <v>0.008152</v>
+        <v>0.009428000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.014674</v>
+        <v>0.011048</v>
       </c>
     </row>
     <row r="43">
@@ -10194,10 +10194,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.006681</v>
+        <v>-0.00503</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.006681</v>
+        <v>-0.00503</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -10216,16 +10216,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.106926</v>
+        <v>0.123666</v>
       </c>
       <c r="D44" t="n">
-        <v>0.217926</v>
+        <v>0.164073</v>
       </c>
       <c r="E44" t="n">
-        <v>0.106926</v>
+        <v>0.123666</v>
       </c>
       <c r="F44" t="n">
-        <v>0.217926</v>
+        <v>0.164073</v>
       </c>
     </row>
     <row r="45">
@@ -10238,16 +10238,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.021289</v>
+        <v>0.016028</v>
       </c>
       <c r="D45" t="n">
-        <v>0.021289</v>
+        <v>0.016028</v>
       </c>
       <c r="E45" t="n">
-        <v>0.021289</v>
+        <v>0.016028</v>
       </c>
       <c r="F45" t="n">
-        <v>0.021289</v>
+        <v>0.016028</v>
       </c>
     </row>
     <row r="46">
@@ -10260,16 +10260,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.006716</v>
+        <v>0.005056</v>
       </c>
       <c r="D46" t="n">
-        <v>0.006716</v>
+        <v>0.005056</v>
       </c>
       <c r="E46" t="n">
-        <v>0.006716</v>
+        <v>0.005056</v>
       </c>
       <c r="F46" t="n">
-        <v>0.006716</v>
+        <v>0.005056</v>
       </c>
     </row>
     <row r="47">
@@ -10282,10 +10282,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.004076</v>
+        <v>-0.003069</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.004076</v>
+        <v>-0.003069</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -10304,16 +10304,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.012429</v>
+        <v>0.009358</v>
       </c>
       <c r="D48" t="n">
-        <v>0.012429</v>
+        <v>0.009358</v>
       </c>
       <c r="E48" t="n">
-        <v>0.012429</v>
+        <v>0.009358</v>
       </c>
       <c r="F48" t="n">
-        <v>0.012429</v>
+        <v>0.009358</v>
       </c>
     </row>
     <row r="49">
@@ -10326,10 +10326,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.008148000000000001</v>
+        <v>-0.006134</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.008148000000000001</v>
+        <v>-0.006134</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-1.8e-05</v>
+        <v>-2e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.193053</v>
+        <v>0.145347</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.193053</v>
+        <v>0.145347</v>
       </c>
     </row>
     <row r="51">
@@ -10370,10 +10370,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.007224</v>
+        <v>-0.005439</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.007224</v>
+        <v>-0.005439</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -10392,10 +10392,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.005764</v>
+        <v>-0.00434</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005764</v>
+        <v>-0.00434</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.004615</v>
+        <v>-0.004323</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.003738</v>
+        <v>-0.003475</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -10436,16 +10436,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.004271</v>
+        <v>-0.00494</v>
       </c>
       <c r="D54" t="n">
-        <v>0.016725</v>
+        <v>0.012592</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.016725</v>
+        <v>0.012592</v>
       </c>
     </row>
     <row r="55">
@@ -10458,10 +10458,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.007933000000000001</v>
+        <v>-0.005972</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.007933000000000001</v>
+        <v>-0.005972</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -10480,10 +10480,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.005535</v>
+        <v>-0.006402</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.003257</v>
+        <v>-0.002452</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -10502,10 +10502,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-0.004038</v>
+        <v>-0.00304</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.004038</v>
+        <v>-0.00304</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.001514</v>
+        <v>-0.00114</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.001514</v>
+        <v>-0.00114</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -10546,10 +10546,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.008866000000000001</v>
+        <v>-0.006675</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.008866000000000001</v>
+        <v>-0.006675</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -10568,10 +10568,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.006712</v>
+        <v>-0.005053</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.006712</v>
+        <v>-0.005053</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -10590,10 +10590,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.003411</v>
+        <v>-0.002568</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.000175</v>
+        <v>-0.000202</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -10612,10 +10612,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.005374</v>
+        <v>-0.006215</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.004656</v>
+        <v>-0.003505</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -10634,16 +10634,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.006099</v>
+        <v>0.005546</v>
       </c>
       <c r="D63" t="n">
-        <v>0.007366</v>
+        <v>0.007054</v>
       </c>
       <c r="E63" t="n">
-        <v>0.006099</v>
+        <v>0.005546</v>
       </c>
       <c r="F63" t="n">
-        <v>0.007366</v>
+        <v>0.007054</v>
       </c>
     </row>
     <row r="64">
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.075131</v>
+        <v>0.086894</v>
       </c>
       <c r="D64" t="n">
-        <v>0.163714</v>
+        <v>0.123258</v>
       </c>
       <c r="E64" t="n">
-        <v>0.075131</v>
+        <v>0.086894</v>
       </c>
       <c r="F64" t="n">
-        <v>0.163714</v>
+        <v>0.123258</v>
       </c>
     </row>
     <row r="65">
@@ -10678,16 +10678,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.001931</v>
+        <v>-0.002233</v>
       </c>
       <c r="D65" t="n">
-        <v>0.23829</v>
+        <v>0.179405</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.23829</v>
+        <v>0.179405</v>
       </c>
     </row>
     <row r="66">
@@ -10700,16 +10700,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-0.001868</v>
+        <v>-0.001406</v>
       </c>
       <c r="D66" t="n">
-        <v>0.011592</v>
+        <v>0.013407</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.011592</v>
+        <v>0.013407</v>
       </c>
     </row>
     <row r="67">
@@ -10722,16 +10722,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-0.004533</v>
+        <v>-0.003413</v>
       </c>
       <c r="D67" t="n">
-        <v>0.010677</v>
+        <v>0.012349</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.010677</v>
+        <v>0.012349</v>
       </c>
     </row>
     <row r="68">
@@ -10744,10 +10744,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.005916</v>
+        <v>-0.004454</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.002774</v>
+        <v>-0.003208</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -10766,10 +10766,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.008625000000000001</v>
+        <v>-0.006494</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.008625000000000001</v>
+        <v>-0.006494</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -10788,10 +10788,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.005454</v>
+        <v>-0.004106</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.005454</v>
+        <v>-0.004106</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -10810,10 +10810,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.009502999999999999</v>
+        <v>-0.007155</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.005551</v>
+        <v>-0.00642</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -10832,16 +10832,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.064106</v>
+        <v>0.074142</v>
       </c>
       <c r="D72" t="n">
-        <v>0.271077</v>
+        <v>0.20409</v>
       </c>
       <c r="E72" t="n">
-        <v>0.064106</v>
+        <v>0.074142</v>
       </c>
       <c r="F72" t="n">
-        <v>0.271077</v>
+        <v>0.20409</v>
       </c>
     </row>
     <row r="73">
@@ -10854,10 +10854,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.007002</v>
+        <v>-0.005272</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.007002</v>
+        <v>-0.005272</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -10876,10 +10876,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-0.005562</v>
+        <v>-0.004187</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.005562</v>
+        <v>-0.004187</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.007472</v>
+        <v>-0.005625</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.007472</v>
+        <v>-0.005625</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -10920,13 +10920,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.052425</v>
+        <v>0.060632</v>
       </c>
       <c r="D76" t="n">
-        <v>1.358446</v>
+        <v>1.022752</v>
       </c>
       <c r="E76" t="n">
-        <v>0.052425</v>
+        <v>0.060632</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -10942,16 +10942,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.005618</v>
+        <v>-0.006498</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0019</v>
+        <v>0.00143</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0019</v>
+        <v>0.00143</v>
       </c>
     </row>
     <row r="78">
@@ -10964,16 +10964,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.000429</v>
+        <v>0.000323</v>
       </c>
       <c r="D78" t="n">
-        <v>0.000429</v>
+        <v>0.000323</v>
       </c>
       <c r="E78" t="n">
-        <v>0.000429</v>
+        <v>0.000323</v>
       </c>
       <c r="F78" t="n">
-        <v>0.000429</v>
+        <v>0.000323</v>
       </c>
     </row>
     <row r="79">
@@ -10986,16 +10986,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.013838</v>
+        <v>0.010418</v>
       </c>
       <c r="D79" t="n">
-        <v>0.013838</v>
+        <v>0.010418</v>
       </c>
       <c r="E79" t="n">
-        <v>0.013838</v>
+        <v>0.010418</v>
       </c>
       <c r="F79" t="n">
-        <v>0.013838</v>
+        <v>0.010418</v>
       </c>
     </row>
     <row r="80">
@@ -11008,10 +11008,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.004275</v>
+        <v>-0.003218</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.004275</v>
+        <v>-0.003218</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -11030,16 +11030,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.002212</v>
+        <v>0.001665</v>
       </c>
       <c r="D81" t="n">
-        <v>0.002212</v>
+        <v>0.001665</v>
       </c>
       <c r="E81" t="n">
-        <v>0.002212</v>
+        <v>0.001665</v>
       </c>
       <c r="F81" t="n">
-        <v>0.002212</v>
+        <v>0.001665</v>
       </c>
     </row>
     <row r="82">
@@ -11052,16 +11052,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.038704</v>
+        <v>0.044763</v>
       </c>
       <c r="D82" t="n">
-        <v>0.53015</v>
+        <v>0.399141</v>
       </c>
       <c r="E82" t="n">
-        <v>0.038704</v>
+        <v>0.044763</v>
       </c>
       <c r="F82" t="n">
-        <v>0.53015</v>
+        <v>0.399141</v>
       </c>
     </row>
     <row r="83">
@@ -11074,10 +11074,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.002291</v>
+        <v>-0.001725</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.002291</v>
+        <v>-0.001725</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -11096,10 +11096,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.006724</v>
+        <v>-0.005063</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.006724</v>
+        <v>-0.005063</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -11118,10 +11118,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-0.007481</v>
+        <v>-0.005632</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.007481</v>
+        <v>-0.005632</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -11140,16 +11140,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.084816</v>
+        <v>0.063857</v>
       </c>
       <c r="D86" t="n">
-        <v>0.116082</v>
+        <v>0.134255</v>
       </c>
       <c r="E86" t="n">
-        <v>0.084816</v>
+        <v>0.063857</v>
       </c>
       <c r="F86" t="n">
-        <v>0.116082</v>
+        <v>0.134255</v>
       </c>
     </row>
     <row r="87">
@@ -11162,10 +11162,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.00173</v>
+        <v>-0.001303</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.00173</v>
+        <v>-0.001303</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -11184,10 +11184,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.003886</v>
+        <v>-0.002926</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.003886</v>
+        <v>-0.002926</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -11206,16 +11206,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-0.002042</v>
+        <v>-0.002362</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02053</v>
+        <v>0.015457</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.02053</v>
+        <v>0.015457</v>
       </c>
     </row>
     <row r="90">
@@ -11228,10 +11228,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.008544</v>
+        <v>-0.006432</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.008544</v>
+        <v>-0.006432</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -11250,16 +11250,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.078335</v>
+        <v>0.058978</v>
       </c>
       <c r="D91" t="n">
-        <v>0.078335</v>
+        <v>0.058978</v>
       </c>
       <c r="E91" t="n">
-        <v>0.078335</v>
+        <v>0.058978</v>
       </c>
       <c r="F91" t="n">
-        <v>0.078335</v>
+        <v>0.058978</v>
       </c>
     </row>
     <row r="92">
@@ -11272,10 +11272,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-0.008179000000000001</v>
+        <v>-0.006158</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.008179000000000001</v>
+        <v>-0.006158</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002784</v>
+        <v>0.00322</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.002784</v>
+        <v>0.00322</v>
       </c>
     </row>
     <row r="94">
@@ -11316,16 +11316,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.001735</v>
+        <v>0.001306</v>
       </c>
       <c r="D94" t="n">
-        <v>0.015702</v>
+        <v>0.018161</v>
       </c>
       <c r="E94" t="n">
-        <v>0.001735</v>
+        <v>0.001306</v>
       </c>
       <c r="F94" t="n">
-        <v>0.015702</v>
+        <v>0.018161</v>
       </c>
     </row>
     <row r="95">
@@ -11338,10 +11338,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-0.001092</v>
+        <v>-0.000822</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.001092</v>
+        <v>-0.000822</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -11360,10 +11360,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-0.009051</v>
+        <v>-0.006814</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.009051</v>
+        <v>-0.006814</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -11382,16 +11382,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.006013</v>
+        <v>0.004527</v>
       </c>
       <c r="D97" t="n">
-        <v>0.043347</v>
+        <v>0.050133</v>
       </c>
       <c r="E97" t="n">
-        <v>0.006013</v>
+        <v>0.004527</v>
       </c>
       <c r="F97" t="n">
-        <v>0.043347</v>
+        <v>0.050133</v>
       </c>
     </row>
     <row r="98">
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.044747</v>
+        <v>0.051752</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07018199999999999</v>
+        <v>0.052839</v>
       </c>
       <c r="E98" t="n">
-        <v>0.044747</v>
+        <v>0.051752</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07018199999999999</v>
+        <v>0.052839</v>
       </c>
     </row>
     <row r="99">
@@ -11426,10 +11426,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-0.006481</v>
+        <v>-0.004879</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.006481</v>
+        <v>-0.004879</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -11448,10 +11448,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.005483</v>
+        <v>-0.004128</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.005483</v>
+        <v>-0.004128</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -11470,16 +11470,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.005691</v>
+        <v>0.006582</v>
       </c>
       <c r="D101" t="n">
-        <v>0.020684</v>
+        <v>0.015573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.005691</v>
+        <v>0.006582</v>
       </c>
       <c r="F101" t="n">
-        <v>0.020684</v>
+        <v>0.015573</v>
       </c>
     </row>
     <row r="102">
@@ -11492,10 +11492,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-0.006032</v>
+        <v>-0.004541</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.006032</v>
+        <v>-0.004541</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -11514,16 +11514,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.671774</v>
+        <v>0.505767</v>
       </c>
       <c r="D103" t="n">
-        <v>0.72927</v>
+        <v>0.8434430000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.671774</v>
+        <v>0.505767</v>
       </c>
       <c r="F103" t="n">
-        <v>0.72927</v>
+        <v>0.8434430000000001</v>
       </c>
     </row>
     <row r="104">
@@ -11536,16 +11536,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.143836</v>
+        <v>0.166355</v>
       </c>
       <c r="D104" t="n">
-        <v>0.612707</v>
+        <v>0.461297</v>
       </c>
       <c r="E104" t="n">
-        <v>0.143836</v>
+        <v>0.166355</v>
       </c>
       <c r="F104" t="n">
-        <v>0.612707</v>
+        <v>0.461297</v>
       </c>
     </row>
     <row r="105">
@@ -11558,10 +11558,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-0.007512</v>
+        <v>-0.005656</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.002921</v>
+        <v>-0.003379</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -11580,10 +11580,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-0.003394</v>
+        <v>-0.002556</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.003394</v>
+        <v>-0.002556</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -11602,16 +11602,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.032338</v>
+        <v>0.024347</v>
       </c>
       <c r="D107" t="n">
-        <v>0.057851</v>
+        <v>0.066908</v>
       </c>
       <c r="E107" t="n">
-        <v>0.032338</v>
+        <v>0.024347</v>
       </c>
       <c r="F107" t="n">
-        <v>0.057851</v>
+        <v>0.066908</v>
       </c>
     </row>
     <row r="108">
@@ -11624,16 +11624,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.0009829999999999999</v>
+        <v>0.00074</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0009829999999999999</v>
+        <v>0.00074</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0009829999999999999</v>
+        <v>0.00074</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0009829999999999999</v>
+        <v>0.00074</v>
       </c>
     </row>
     <row r="109">
@@ -11649,13 +11649,13 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.025515</v>
+        <v>0.01921</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.025515</v>
+        <v>0.01921</v>
       </c>
     </row>
     <row r="110">
@@ -11668,10 +11668,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-0.006265</v>
+        <v>-0.004717</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.003417</v>
+        <v>-0.003952</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -11690,16 +11690,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-0.002265</v>
+        <v>-0.00262</v>
       </c>
       <c r="D111" t="n">
-        <v>0.003588</v>
+        <v>0.002701</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.003588</v>
+        <v>0.002701</v>
       </c>
     </row>
     <row r="112">
@@ -11712,10 +11712,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-0.004621</v>
+        <v>-0.003479</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.004621</v>
+        <v>-0.003479</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -11737,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1.328226</v>
+        <v>1.156557</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
@@ -11756,16 +11756,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.002719</v>
+        <v>0.002047</v>
       </c>
       <c r="D114" t="n">
-        <v>0.00826</v>
+        <v>0.009553000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.002719</v>
+        <v>0.002047</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00826</v>
+        <v>0.009553000000000001</v>
       </c>
     </row>
     <row r="115">
@@ -11778,16 +11778,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.125423</v>
+        <v>0.118732</v>
       </c>
       <c r="D115" t="n">
-        <v>0.157702</v>
+        <v>0.145059</v>
       </c>
       <c r="E115" t="n">
-        <v>0.125423</v>
+        <v>0.118732</v>
       </c>
       <c r="F115" t="n">
-        <v>0.157702</v>
+        <v>0.145059</v>
       </c>
     </row>
     <row r="116">
@@ -11800,10 +11800,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-0.005394</v>
+        <v>-0.004061</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.005394</v>
+        <v>-0.004061</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -11822,16 +11822,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.039659</v>
+        <v>0.045868</v>
       </c>
       <c r="D117" t="n">
-        <v>0.607598</v>
+        <v>0.457451</v>
       </c>
       <c r="E117" t="n">
-        <v>0.039659</v>
+        <v>0.045868</v>
       </c>
       <c r="F117" t="n">
-        <v>0.607598</v>
+        <v>0.457451</v>
       </c>
     </row>
     <row r="118">
@@ -11844,10 +11844,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-0.005666</v>
+        <v>-0.006554</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.004602</v>
+        <v>-0.003465</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -11866,16 +11866,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-0.003917</v>
+        <v>-0.00453</v>
       </c>
       <c r="D119" t="n">
-        <v>0.000796</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.000796</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="120">
@@ -11888,10 +11888,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-0.00355</v>
+        <v>-0.002673</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.00355</v>
+        <v>-0.002673</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -11910,10 +11910,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-0.004891</v>
+        <v>-0.005657</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.003755</v>
+        <v>-0.002827</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -11932,10 +11932,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-0.002476</v>
+        <v>-0.001864</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.002476</v>
+        <v>-0.001864</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -11954,10 +11954,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-0.001867</v>
+        <v>-0.001405</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.001867</v>
+        <v>-0.001405</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -11976,16 +11976,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-0.004876</v>
+        <v>-0.00564</v>
       </c>
       <c r="D124" t="n">
-        <v>0.020292</v>
+        <v>0.015278</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.020292</v>
+        <v>0.015278</v>
       </c>
     </row>
     <row r="125">
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-0.008201999999999999</v>
+        <v>-0.006175</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.008201999999999999</v>
+        <v>-0.006175</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -12020,10 +12020,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>-0.009194000000000001</v>
+        <v>-0.006922</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.009194000000000001</v>
+        <v>-0.006922</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -12042,16 +12042,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.017339</v>
+        <v>0.013054</v>
       </c>
       <c r="D127" t="n">
-        <v>0.017339</v>
+        <v>0.013054</v>
       </c>
       <c r="E127" t="n">
-        <v>0.017339</v>
+        <v>0.013054</v>
       </c>
       <c r="F127" t="n">
-        <v>0.017339</v>
+        <v>0.013054</v>
       </c>
     </row>
     <row r="128">
@@ -12064,16 +12064,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.016642</v>
+        <v>0.012529</v>
       </c>
       <c r="D128" t="n">
-        <v>0.016642</v>
+        <v>0.012529</v>
       </c>
       <c r="E128" t="n">
-        <v>0.016642</v>
+        <v>0.012529</v>
       </c>
       <c r="F128" t="n">
-        <v>0.016642</v>
+        <v>0.012529</v>
       </c>
     </row>
     <row r="129">
@@ -12086,10 +12086,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-0.008528000000000001</v>
+        <v>-0.006421</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.008528000000000001</v>
+        <v>-0.006421</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -12108,10 +12108,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-0.006481</v>
+        <v>-0.004879</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.003752</v>
+        <v>-0.00434</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -12130,10 +12130,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-0.001876</v>
+        <v>-0.001413</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.001876</v>
+        <v>-0.001413</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -12152,10 +12152,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-0.004902</v>
+        <v>-0.005468</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.004728</v>
+        <v>-0.00369</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -12174,16 +12174,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.004294</v>
+        <v>0.003233</v>
       </c>
       <c r="D133" t="n">
-        <v>0.015675</v>
+        <v>0.018129</v>
       </c>
       <c r="E133" t="n">
-        <v>0.004294</v>
+        <v>0.003233</v>
       </c>
       <c r="F133" t="n">
-        <v>0.015675</v>
+        <v>0.018129</v>
       </c>
     </row>
     <row r="134">
@@ -12196,16 +12196,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.078871</v>
+        <v>0.059381</v>
       </c>
       <c r="D134" t="n">
-        <v>0.195809</v>
+        <v>0.226464</v>
       </c>
       <c r="E134" t="n">
-        <v>0.078871</v>
+        <v>0.059381</v>
       </c>
       <c r="F134" t="n">
-        <v>0.195809</v>
+        <v>0.226464</v>
       </c>
     </row>
     <row r="135">
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.006198</v>
+        <v>-0.004667</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.006198</v>
+        <v>-0.004667</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -12240,16 +12240,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.15841</v>
+        <v>0.119264</v>
       </c>
       <c r="D136" t="n">
-        <v>0.343588</v>
+        <v>0.397379</v>
       </c>
       <c r="E136" t="n">
-        <v>0.15841</v>
+        <v>0.119264</v>
       </c>
       <c r="F136" t="n">
-        <v>0.343588</v>
+        <v>0.397379</v>
       </c>
     </row>
     <row r="137">
@@ -12262,16 +12262,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.001776</v>
+        <v>-0.002054</v>
       </c>
       <c r="D137" t="n">
-        <v>0.001352</v>
+        <v>0.001018</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.001352</v>
+        <v>0.001018</v>
       </c>
     </row>
     <row r="138">
@@ -12284,10 +12284,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-0.003787</v>
+        <v>-0.002851</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.003787</v>
+        <v>-0.002851</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -12306,16 +12306,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.158197</v>
+        <v>0.119104</v>
       </c>
       <c r="D139" t="n">
-        <v>0.333673</v>
+        <v>0.385911</v>
       </c>
       <c r="E139" t="n">
-        <v>0.158197</v>
+        <v>0.119104</v>
       </c>
       <c r="F139" t="n">
-        <v>0.333673</v>
+        <v>0.385911</v>
       </c>
     </row>
     <row r="140">
@@ -12328,10 +12328,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-0.00084</v>
+        <v>-0.000632</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.00084</v>
+        <v>-0.000632</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -12350,16 +12350,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-0.003912</v>
+        <v>-0.002946</v>
       </c>
       <c r="D141" t="n">
-        <v>0.004098</v>
+        <v>0.00474</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.004098</v>
+        <v>0.00474</v>
       </c>
     </row>
     <row r="142">
@@ -12372,16 +12372,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.099116</v>
+        <v>0.114634</v>
       </c>
       <c r="D142" t="n">
-        <v>0.945972</v>
+        <v>0.712207</v>
       </c>
       <c r="E142" t="n">
-        <v>0.099116</v>
+        <v>0.114634</v>
       </c>
       <c r="F142" t="n">
-        <v>0.945972</v>
+        <v>0.712207</v>
       </c>
     </row>
     <row r="143">
@@ -12394,16 +12394,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.016138</v>
+        <v>0.018665</v>
       </c>
       <c r="D143" t="n">
-        <v>0.025981</v>
+        <v>0.019561</v>
       </c>
       <c r="E143" t="n">
-        <v>0.016138</v>
+        <v>0.018665</v>
       </c>
       <c r="F143" t="n">
-        <v>0.025981</v>
+        <v>0.019561</v>
       </c>
     </row>
     <row r="144">
@@ -12416,16 +12416,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-0.000141</v>
+        <v>-0.000163</v>
       </c>
       <c r="D144" t="n">
-        <v>0.035105</v>
+        <v>0.02643</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.035105</v>
+        <v>0.02643</v>
       </c>
     </row>
     <row r="145">
@@ -12438,16 +12438,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.026167</v>
+        <v>0.0197</v>
       </c>
       <c r="D145" t="n">
-        <v>0.026167</v>
+        <v>0.0197</v>
       </c>
       <c r="E145" t="n">
-        <v>0.026167</v>
+        <v>0.0197</v>
       </c>
       <c r="F145" t="n">
-        <v>0.026167</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="146">
@@ -12460,16 +12460,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.04417</v>
+        <v>0.033255</v>
       </c>
       <c r="D146" t="n">
-        <v>0.093264</v>
+        <v>0.107866</v>
       </c>
       <c r="E146" t="n">
-        <v>0.04417</v>
+        <v>0.033255</v>
       </c>
       <c r="F146" t="n">
-        <v>0.093264</v>
+        <v>0.107866</v>
       </c>
     </row>
     <row r="147">
@@ -12482,16 +12482,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.000477</v>
+        <v>0.000552</v>
       </c>
       <c r="D147" t="n">
-        <v>0.004767</v>
+        <v>0.003589</v>
       </c>
       <c r="E147" t="n">
-        <v>0.000477</v>
+        <v>0.000552</v>
       </c>
       <c r="F147" t="n">
-        <v>0.004767</v>
+        <v>0.003589</v>
       </c>
     </row>
     <row r="148">
@@ -12504,16 +12504,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.009946</v>
+        <v>0.007488</v>
       </c>
       <c r="D148" t="n">
-        <v>0.009946</v>
+        <v>0.007488</v>
       </c>
       <c r="E148" t="n">
-        <v>0.009946</v>
+        <v>0.007488</v>
       </c>
       <c r="F148" t="n">
-        <v>0.009946</v>
+        <v>0.007488</v>
       </c>
     </row>
     <row r="149">
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-0.000394</v>
+        <v>-0.000297</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.000394</v>
+        <v>-0.000297</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -12548,16 +12548,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-0.004891</v>
+        <v>-0.005657</v>
       </c>
       <c r="D150" t="n">
-        <v>0.002929</v>
+        <v>0.002205</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.002929</v>
+        <v>0.002205</v>
       </c>
     </row>
     <row r="151">
@@ -12570,16 +12570,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.000274</v>
+        <v>0.000317</v>
       </c>
       <c r="D151" t="n">
-        <v>0.012968</v>
+        <v>0.009763000000000001</v>
       </c>
       <c r="E151" t="n">
-        <v>0.000274</v>
+        <v>0.000317</v>
       </c>
       <c r="F151" t="n">
-        <v>0.012968</v>
+        <v>0.009763000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -12592,16 +12592,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.017533</v>
+        <v>0.020278</v>
       </c>
       <c r="D152" t="n">
-        <v>0.15197</v>
+        <v>0.114416</v>
       </c>
       <c r="E152" t="n">
-        <v>0.017533</v>
+        <v>0.020278</v>
       </c>
       <c r="F152" t="n">
-        <v>0.15197</v>
+        <v>0.114416</v>
       </c>
     </row>
     <row r="153">
@@ -12614,16 +12614,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.035947</v>
+        <v>0.027064</v>
       </c>
       <c r="D153" t="n">
-        <v>0.064842</v>
+        <v>0.074993</v>
       </c>
       <c r="E153" t="n">
-        <v>0.035947</v>
+        <v>0.027064</v>
       </c>
       <c r="F153" t="n">
-        <v>0.064842</v>
+        <v>0.074993</v>
       </c>
     </row>
     <row r="154">
@@ -12636,16 +12636,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-0.000937</v>
+        <v>-0.001084</v>
       </c>
       <c r="D154" t="n">
-        <v>0.001697</v>
+        <v>0.001278</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.001697</v>
+        <v>0.001278</v>
       </c>
     </row>
     <row r="155">
@@ -12658,16 +12658,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.001248</v>
+        <v>0.001444</v>
       </c>
       <c r="D155" t="n">
-        <v>0.013784</v>
+        <v>0.010378</v>
       </c>
       <c r="E155" t="n">
-        <v>0.001248</v>
+        <v>0.001444</v>
       </c>
       <c r="F155" t="n">
-        <v>0.013784</v>
+        <v>0.010378</v>
       </c>
     </row>
     <row r="156">
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.006639</v>
+        <v>0.007013</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009315</v>
+        <v>0.007678</v>
       </c>
       <c r="E156" t="n">
-        <v>0.006639</v>
+        <v>0.007013</v>
       </c>
       <c r="F156" t="n">
-        <v>0.009315</v>
+        <v>0.007678</v>
       </c>
     </row>
     <row r="157">
@@ -12702,16 +12702,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.003977</v>
+        <v>0.0046</v>
       </c>
       <c r="D157" t="n">
-        <v>0.006186</v>
+        <v>0.004657</v>
       </c>
       <c r="E157" t="n">
-        <v>0.003977</v>
+        <v>0.0046</v>
       </c>
       <c r="F157" t="n">
-        <v>0.006186</v>
+        <v>0.004657</v>
       </c>
     </row>
     <row r="158">
@@ -12724,16 +12724,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.004085</v>
+        <v>0.004724</v>
       </c>
       <c r="D158" t="n">
-        <v>0.006361</v>
+        <v>0.004789</v>
       </c>
       <c r="E158" t="n">
-        <v>0.004085</v>
+        <v>0.004724</v>
       </c>
       <c r="F158" t="n">
-        <v>0.006361</v>
+        <v>0.004789</v>
       </c>
     </row>
     <row r="159">
@@ -12746,10 +12746,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-0.004888</v>
+        <v>-0.00368</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.002338</v>
+        <v>-0.002704</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -12768,16 +12768,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.032241</v>
+        <v>0.030291</v>
       </c>
       <c r="D160" t="n">
-        <v>0.040234</v>
+        <v>0.037288</v>
       </c>
       <c r="E160" t="n">
-        <v>0.032241</v>
+        <v>0.030291</v>
       </c>
       <c r="F160" t="n">
-        <v>0.040234</v>
+        <v>0.037288</v>
       </c>
     </row>
     <row r="161">
@@ -12790,16 +12790,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.06622500000000001</v>
+        <v>0.064154</v>
       </c>
       <c r="D161" t="n">
-        <v>0.085211</v>
+        <v>0.07659299999999999</v>
       </c>
       <c r="E161" t="n">
-        <v>0.06622500000000001</v>
+        <v>0.064154</v>
       </c>
       <c r="F161" t="n">
-        <v>0.085211</v>
+        <v>0.07659299999999999</v>
       </c>
     </row>
     <row r="162">
@@ -12812,16 +12812,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.056912</v>
+        <v>0.055085</v>
       </c>
       <c r="D162" t="n">
-        <v>0.07316499999999999</v>
+        <v>0.06582200000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>0.056912</v>
+        <v>0.055085</v>
       </c>
       <c r="F162" t="n">
-        <v>0.07316499999999999</v>
+        <v>0.06582200000000001</v>
       </c>
     </row>
     <row r="163">
@@ -12834,10 +12834,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>-0.002822</v>
+        <v>-0.002124</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.001171</v>
+        <v>-0.001354</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -12856,16 +12856,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.001293</v>
+        <v>0.001495</v>
       </c>
       <c r="D164" t="n">
-        <v>0.025742</v>
+        <v>0.019381</v>
       </c>
       <c r="E164" t="n">
-        <v>0.001293</v>
+        <v>0.001495</v>
       </c>
       <c r="F164" t="n">
-        <v>0.025742</v>
+        <v>0.019381</v>
       </c>
     </row>
     <row r="165">
@@ -12878,10 +12878,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-0.004662</v>
+        <v>-0.005392</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.000318</v>
+        <v>-0.00024</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -12900,16 +12900,16 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.013788</v>
+        <v>0.015947</v>
       </c>
       <c r="D166" t="n">
-        <v>0.062185</v>
+        <v>0.046818</v>
       </c>
       <c r="E166" t="n">
-        <v>0.013788</v>
+        <v>0.015947</v>
       </c>
       <c r="F166" t="n">
-        <v>0.062185</v>
+        <v>0.046818</v>
       </c>
     </row>
     <row r="167">
@@ -12922,16 +12922,16 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.006342</v>
+        <v>0.007335</v>
       </c>
       <c r="D167" t="n">
-        <v>0.018142</v>
+        <v>0.013659</v>
       </c>
       <c r="E167" t="n">
-        <v>0.006342</v>
+        <v>0.007335</v>
       </c>
       <c r="F167" t="n">
-        <v>0.018142</v>
+        <v>0.013659</v>
       </c>
     </row>
     <row r="168">
@@ -12944,16 +12944,16 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.004371</v>
+        <v>0.005055</v>
       </c>
       <c r="D168" t="n">
-        <v>0.013445</v>
+        <v>0.010123</v>
       </c>
       <c r="E168" t="n">
-        <v>0.004371</v>
+        <v>0.005055</v>
       </c>
       <c r="F168" t="n">
-        <v>0.013445</v>
+        <v>0.010123</v>
       </c>
     </row>
     <row r="169">
@@ -12966,16 +12966,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.004941</v>
+        <v>0.005407</v>
       </c>
       <c r="D169" t="n">
-        <v>0.007182</v>
+        <v>0.005715</v>
       </c>
       <c r="E169" t="n">
-        <v>0.004941</v>
+        <v>0.005407</v>
       </c>
       <c r="F169" t="n">
-        <v>0.007182</v>
+        <v>0.005715</v>
       </c>
     </row>
     <row r="170">
@@ -12988,10 +12988,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-0.004036</v>
+        <v>-0.004668</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.003305</v>
+        <v>-0.002488</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -13010,16 +13010,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-0.001134</v>
+        <v>-0.001312</v>
       </c>
       <c r="D171" t="n">
-        <v>0.000132</v>
+        <v>9.899999999999999e-05</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.000132</v>
+        <v>9.899999999999999e-05</v>
       </c>
     </row>
     <row r="172">
@@ -13032,16 +13032,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.014017</v>
+        <v>0.016211</v>
       </c>
       <c r="D172" t="n">
-        <v>0.03246</v>
+        <v>0.024439</v>
       </c>
       <c r="E172" t="n">
-        <v>0.014017</v>
+        <v>0.016211</v>
       </c>
       <c r="F172" t="n">
-        <v>0.03246</v>
+        <v>0.024439</v>
       </c>
     </row>
     <row r="173">
@@ -13054,16 +13054,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-0.00134</v>
+        <v>-0.00155</v>
       </c>
       <c r="D173" t="n">
-        <v>0.02399</v>
+        <v>0.018062</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.02399</v>
+        <v>0.018062</v>
       </c>
     </row>
     <row r="174">
@@ -13076,16 +13076,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-0.001954</v>
+        <v>-0.002259</v>
       </c>
       <c r="D174" t="n">
-        <v>0.022291</v>
+        <v>0.016783</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.022291</v>
+        <v>0.016783</v>
       </c>
     </row>
     <row r="175">
@@ -13098,16 +13098,16 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>-0.00102</v>
+        <v>-0.00118</v>
       </c>
       <c r="D175" t="n">
-        <v>0.024759</v>
+        <v>0.018641</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.024759</v>
+        <v>0.018641</v>
       </c>
     </row>
     <row r="176">
@@ -13120,10 +13120,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-0.003599</v>
+        <v>-0.004162</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.00174</v>
+        <v>-0.00131</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -13142,16 +13142,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.004277</v>
+        <v>0.004946</v>
       </c>
       <c r="D177" t="n">
-        <v>0.013094</v>
+        <v>0.009858</v>
       </c>
       <c r="E177" t="n">
-        <v>0.004277</v>
+        <v>0.004946</v>
       </c>
       <c r="F177" t="n">
-        <v>0.013094</v>
+        <v>0.009858</v>
       </c>
     </row>
     <row r="178">
@@ -13164,10 +13164,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-0.005224</v>
+        <v>-0.006042</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.001439</v>
+        <v>-0.001083</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -13186,16 +13186,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.000418</v>
+        <v>0.000484</v>
       </c>
       <c r="D179" t="n">
-        <v>0.003704</v>
+        <v>0.002788</v>
       </c>
       <c r="E179" t="n">
-        <v>0.000418</v>
+        <v>0.000484</v>
       </c>
       <c r="F179" t="n">
-        <v>0.003704</v>
+        <v>0.002788</v>
       </c>
     </row>
     <row r="180">
@@ -13208,16 +13208,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.026602</v>
+        <v>0.030767</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1636</v>
+        <v>0.123172</v>
       </c>
       <c r="E180" t="n">
-        <v>0.026602</v>
+        <v>0.030767</v>
       </c>
       <c r="F180" t="n">
-        <v>0.1636</v>
+        <v>0.123172</v>
       </c>
     </row>
     <row r="181">
@@ -13230,16 +13230,16 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.016894</v>
+        <v>0.019539</v>
       </c>
       <c r="D181" t="n">
-        <v>0.08164100000000001</v>
+        <v>0.061466</v>
       </c>
       <c r="E181" t="n">
-        <v>0.016894</v>
+        <v>0.019539</v>
       </c>
       <c r="F181" t="n">
-        <v>0.08164100000000001</v>
+        <v>0.061466</v>
       </c>
     </row>
     <row r="182">
@@ -13252,16 +13252,16 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.017116</v>
+        <v>0.019795</v>
       </c>
       <c r="D182" t="n">
-        <v>0.08298</v>
+        <v>0.062474</v>
       </c>
       <c r="E182" t="n">
-        <v>0.017116</v>
+        <v>0.019795</v>
       </c>
       <c r="F182" t="n">
-        <v>0.08298</v>
+        <v>0.062474</v>
       </c>
     </row>
     <row r="183">
@@ -13274,16 +13274,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.005264</v>
+        <v>0.006088</v>
       </c>
       <c r="D183" t="n">
-        <v>0.014917</v>
+        <v>0.011231</v>
       </c>
       <c r="E183" t="n">
-        <v>0.005264</v>
+        <v>0.006088</v>
       </c>
       <c r="F183" t="n">
-        <v>0.014917</v>
+        <v>0.011231</v>
       </c>
     </row>
     <row r="184">
@@ -13296,16 +13296,16 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.002434</v>
+        <v>0.002815</v>
       </c>
       <c r="D184" t="n">
-        <v>0.042341</v>
+        <v>0.031878</v>
       </c>
       <c r="E184" t="n">
-        <v>0.002434</v>
+        <v>0.002815</v>
       </c>
       <c r="F184" t="n">
-        <v>0.042341</v>
+        <v>0.031878</v>
       </c>
     </row>
     <row r="185">
@@ -13318,16 +13318,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.006455</v>
+        <v>0.007466</v>
       </c>
       <c r="D185" t="n">
-        <v>0.024582</v>
+        <v>0.018507</v>
       </c>
       <c r="E185" t="n">
-        <v>0.006455</v>
+        <v>0.007466</v>
       </c>
       <c r="F185" t="n">
-        <v>0.024582</v>
+        <v>0.018507</v>
       </c>
     </row>
     <row r="186">
@@ -13340,16 +13340,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.122603</v>
+        <v>0.126982</v>
       </c>
       <c r="D186" t="n">
-        <v>0.168661</v>
+        <v>0.141798</v>
       </c>
       <c r="E186" t="n">
-        <v>0.122603</v>
+        <v>0.126982</v>
       </c>
       <c r="F186" t="n">
-        <v>0.168661</v>
+        <v>0.141798</v>
       </c>
     </row>
     <row r="187">
@@ -13362,16 +13362,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.009204</v>
+        <v>0.00693</v>
       </c>
       <c r="D187" t="n">
-        <v>0.009204</v>
+        <v>0.00693</v>
       </c>
       <c r="E187" t="n">
-        <v>0.009204</v>
+        <v>0.00693</v>
       </c>
       <c r="F187" t="n">
-        <v>0.009204</v>
+        <v>0.00693</v>
       </c>
     </row>
     <row r="188">
@@ -13384,16 +13384,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.010247</v>
+        <v>0.011852</v>
       </c>
       <c r="D188" t="n">
-        <v>0.025136</v>
+        <v>0.018924</v>
       </c>
       <c r="E188" t="n">
-        <v>0.010247</v>
+        <v>0.011852</v>
       </c>
       <c r="F188" t="n">
-        <v>0.025136</v>
+        <v>0.018924</v>
       </c>
     </row>
     <row r="189">
@@ -13406,16 +13406,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>-0.00186</v>
+        <v>-0.002152</v>
       </c>
       <c r="D189" t="n">
-        <v>0.018799</v>
+        <v>0.014153</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.018799</v>
+        <v>0.014153</v>
       </c>
     </row>
     <row r="190">
@@ -13428,16 +13428,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.104937</v>
+        <v>0.102727</v>
       </c>
       <c r="D190" t="n">
-        <v>0.136444</v>
+        <v>0.121365</v>
       </c>
       <c r="E190" t="n">
-        <v>0.104937</v>
+        <v>0.102727</v>
       </c>
       <c r="F190" t="n">
-        <v>0.136444</v>
+        <v>0.121365</v>
       </c>
     </row>
     <row r="191">
@@ -13450,10 +13450,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>-0.005632</v>
+        <v>-0.005649</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.004884</v>
+        <v>-0.00424</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -13472,10 +13472,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>-0.005632</v>
+        <v>-0.005649</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.004884</v>
+        <v>-0.00424</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -13494,16 +13494,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>-0.002847</v>
+        <v>-0.003293</v>
       </c>
       <c r="D193" t="n">
-        <v>0.006956</v>
+        <v>0.005237</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.006956</v>
+        <v>0.005237</v>
       </c>
     </row>
     <row r="194">
@@ -13516,16 +13516,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>-0.002849</v>
+        <v>-0.003295</v>
       </c>
       <c r="D194" t="n">
-        <v>0.006964</v>
+        <v>0.005243</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.006964</v>
+        <v>0.005243</v>
       </c>
     </row>
     <row r="195">
@@ -13538,16 +13538,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>-0.002847</v>
+        <v>-0.003293</v>
       </c>
       <c r="D195" t="n">
-        <v>0.006956</v>
+        <v>0.005237</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.006956</v>
+        <v>0.005237</v>
       </c>
     </row>
     <row r="196">
@@ -13560,16 +13560,16 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.01174</v>
+        <v>0.013578</v>
       </c>
       <c r="D196" t="n">
-        <v>0.029857</v>
+        <v>0.022479</v>
       </c>
       <c r="E196" t="n">
-        <v>0.01174</v>
+        <v>0.013578</v>
       </c>
       <c r="F196" t="n">
-        <v>0.029857</v>
+        <v>0.022479</v>
       </c>
     </row>
     <row r="197">
@@ -13582,16 +13582,16 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.005852</v>
+        <v>0.006768</v>
       </c>
       <c r="D197" t="n">
-        <v>0.020623</v>
+        <v>0.015526</v>
       </c>
       <c r="E197" t="n">
-        <v>0.005852</v>
+        <v>0.006768</v>
       </c>
       <c r="F197" t="n">
-        <v>0.020623</v>
+        <v>0.015526</v>
       </c>
     </row>
   </sheetData>
